--- a/Tests/Integration V1 + Chapter Quiz Integration Test Report.xlsx
+++ b/Tests/Integration V1 + Chapter Quiz Integration Test Report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerst_000\source\repos\2018-02-healthcare-visualization\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerst_000\Source\Repos\2018-02-healthcare-visualization\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8D17F5-3E67-47D9-9BAA-DACAE3430C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BCA8FE-EDA3-401F-90EB-812CDDF96FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{A330BECD-E836-4AC6-938E-7E613B009CCC}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Y/N</t>
   </si>
   <si>
-    <t>My code is tidy (indentation, line length, no commented-out code, no spelling mistakes, ect)</t>
-  </si>
-  <si>
     <t>I have considered proper use of exceptions</t>
   </si>
   <si>
@@ -171,15 +168,9 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>No unit tests were preformed due to the javascript code not having any input variance - all functionality was seen through GUI testing since results were static (developer tests)</t>
-  </si>
-  <si>
     <t>Some hardcoded values are left in to still allow for viewing - will change when we move to server based</t>
   </si>
   <si>
-    <t>Code releases all resources on exit - as per Java/Javascript functions</t>
-  </si>
-  <si>
     <t>The page loads as expected</t>
   </si>
   <si>
@@ -258,12 +249,6 @@
     <t>Mark a chapter as important</t>
   </si>
   <si>
-    <t>Close brower and reload</t>
-  </si>
-  <si>
-    <t>Change broswers</t>
-  </si>
-  <si>
     <t>Clear all bookmarks</t>
   </si>
   <si>
@@ -414,18 +399,9 @@
     <t>At bottom of chosen chapter click the mark as "important!" button</t>
   </si>
   <si>
-    <t>Close broswer and reopen again</t>
-  </si>
-  <si>
     <t>Load page in new browser</t>
   </si>
   <si>
-    <t>Go to settings in top bar dropwdown and select" Clear all bookmarks" button</t>
-  </si>
-  <si>
-    <t>Go to settings in top bar dropwdown and select" Clear all bookmarks" button then select a chapter without closing</t>
-  </si>
-  <si>
     <t>Do input of chosen step</t>
   </si>
   <si>
@@ -441,24 +417,15 @@
     <t>Unmark as important</t>
   </si>
   <si>
-    <t>At bottom of orginal chapter marked (step 5) click the mark as "important!" button again</t>
-  </si>
-  <si>
     <t>Chapter marked with "!"</t>
   </si>
   <si>
     <t>Unmark as reread</t>
   </si>
   <si>
-    <t>At bottom of orginal chapter marked (step 4) click the mark as "read again" button again</t>
-  </si>
-  <si>
     <t>Chapter marked with "⋆"</t>
   </si>
   <si>
-    <t>As expected - since this can be changed back to "✔" by going to next chapter don't need to have unmark fucntionality in</t>
-  </si>
-  <si>
     <t>Nothing happens</t>
   </si>
   <si>
@@ -477,9 +444,6 @@
     <t>No bookmarks appear on chapters that should be marked</t>
   </si>
   <si>
-    <t>As expected - bookmarks are currently stored in browser local storage so they do not transfer between broswers</t>
-  </si>
-  <si>
     <t>Result of chosen step repeats</t>
   </si>
   <si>
@@ -519,13 +483,7 @@
     <t xml:space="preserve">Ran auto clicker at 1ms for 2 minutes on bookmarks buttons (mark as read again/mark as important!) </t>
   </si>
   <si>
-    <t>Nothing evident happened (mark as read again has no change/mark as important! Swicthed bookmark between "!" And ".." every click)</t>
-  </si>
-  <si>
     <t>Nothing happened</t>
-  </si>
-  <si>
-    <t>Nothing evident happened (except intial text change)</t>
   </si>
   <si>
     <t>Chapter changes to next (which scrolls to the top - meaning clicker reverts to step 2.4)</t>
@@ -887,9 +845,6 @@
     </r>
   </si>
   <si>
-    <t>There is a few commeneted out features (left for furture developer to re add so they wish it)</t>
-  </si>
-  <si>
     <t>Purpose: To test all new features that were added by integrating chapter quiz into system</t>
   </si>
   <si>
@@ -938,19 +893,10 @@
     <t>Click on the same quiz tab originally selected</t>
   </si>
   <si>
-    <t>Center text changes to first page of the chapter the quiz if forand window is relocated to the top of page</t>
-  </si>
-  <si>
     <t>Center text changes to corresponding chapter page and window is relocated to the top of page</t>
   </si>
   <si>
     <t>Quiz reloads from question 1 (new random question)</t>
-  </si>
-  <si>
-    <t>As expected - questions and progress is reset since quiz is not treated as an assesment more as a reinforcement of knowledge</t>
-  </si>
-  <si>
-    <t>Center text changes to next chapert after the one the quiz is on  and window is relocated to the top of page and quiz is marked with "✔"</t>
   </si>
   <si>
     <t>Center text changes to Chapter quiz page text, first question loads and window is relocated to the top of page and page is marked with "..." - unless already marked with "✔", then no change</t>
@@ -1075,22 +1021,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">As expected - quiz will be marked as complete </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(once bookmark feature implemented) does not mark as complete (due to change of need to have it compulsoryly completed)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <strike/>
         <sz val="11"/>
@@ -1233,6 +1163,76 @@
       </rPr>
       <t xml:space="preserve"> clicked the tab 20 times                                                                   2. Ran through quiz 10 times</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As expected - quiz will be marked as complete </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(once bookmark feature implemented) does not mark as complete (due to change of need to have it compulsorily completed)</t>
+    </r>
+  </si>
+  <si>
+    <t>My code is tidy (indentation, line length, no commented-out code, no spelling mistakes, etc)</t>
+  </si>
+  <si>
+    <t>No unit tests were preformed due to the JavaScript code not having any input variance - all functionality was seen through GUI testing since results were static (developer tests)</t>
+  </si>
+  <si>
+    <t>Code releases all resources on exit - as per Java/JavaScript functions</t>
+  </si>
+  <si>
+    <t>There is a few commented out features (left for future developer to re add so they wish it)</t>
+  </si>
+  <si>
+    <t>Center text changes to next chapter after the one the quiz is on  and window is relocated to the top of page and quiz is marked with "✔"</t>
+  </si>
+  <si>
+    <t>As expected - questions and progress is reset since quiz is not treated as an assessment more as a reinforcement of knowledge</t>
+  </si>
+  <si>
+    <t>At bottom of original chapter marked (step 4) click the mark as "read again" button again</t>
+  </si>
+  <si>
+    <t>As expected - since this can be changed back to "✔" by going to next chapter don't need to have unmark functionality in</t>
+  </si>
+  <si>
+    <t>At bottom of original chapter marked (step 5) click the mark as "important!" button again</t>
+  </si>
+  <si>
+    <t>Close browser and reload</t>
+  </si>
+  <si>
+    <t>Close browser and reopen again</t>
+  </si>
+  <si>
+    <t>Change browsers</t>
+  </si>
+  <si>
+    <t>As expected - bookmarks are currently stored in browser local storage so they do not transfer between browsers</t>
+  </si>
+  <si>
+    <t>Go to settings in top bar dropdown and select" Clear all bookmarks" button</t>
+  </si>
+  <si>
+    <t>Go to settings in top bar dropdown and select" Clear all bookmarks" button then select a chapter without closing</t>
+  </si>
+  <si>
+    <t>Nothing evident happened (except initial text change)</t>
+  </si>
+  <si>
+    <t>Nothing evident happened (mark as read again has no change/mark as important! Switched bookmark between "!" And ".." every click)</t>
+  </si>
+  <si>
+    <t>Center text changes to first page of the chapter the quiz it is for and window is relocated to the top of page</t>
   </si>
 </sst>
 </file>
@@ -1753,14 +1753,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1771,19 +1769,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1795,59 +1787,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1866,8 +1823,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1899,13 +1892,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2222,8 +2222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3386EA7-E985-4B0C-876A-4522744B2EB5}">
   <dimension ref="A1:X204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K146" sqref="K146:M146"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,14 +2248,14 @@
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
@@ -2327,15 +2327,15 @@
       <c r="A9" s="18">
         <v>1</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="28" t="s">
         <v>30</v>
       </c>
@@ -2344,15 +2344,15 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="28" t="s">
         <v>32</v>
       </c>
@@ -2361,15 +2361,15 @@
       <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
+      <c r="B11" s="87" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="28" t="s">
         <v>32</v>
       </c>
@@ -2378,15 +2378,15 @@
       <c r="A12" s="18">
         <v>4</v>
       </c>
-      <c r="B12" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
+      <c r="B12" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="28" t="s">
         <v>30</v>
       </c>
@@ -2395,32 +2395,32 @@
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="28" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="28" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>6</v>
       </c>
-      <c r="B14" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
+      <c r="B14" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="28" t="s">
         <v>30</v>
       </c>
@@ -2429,15 +2429,15 @@
       <c r="A15" s="18">
         <v>7</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
+      <c r="B15" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="28" t="s">
         <v>30</v>
       </c>
@@ -2446,32 +2446,32 @@
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="28" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="B17" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="28" t="s">
         <v>30</v>
       </c>
@@ -2480,32 +2480,32 @@
       <c r="A18" s="18">
         <v>10</v>
       </c>
-      <c r="B18" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
+      <c r="B18" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
+      <c r="B19" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="28" t="s">
         <v>30</v>
       </c>
@@ -2514,15 +2514,15 @@
       <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
+      <c r="B20" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="28" t="s">
         <v>30</v>
       </c>
@@ -2531,39 +2531,39 @@
       <c r="A21" s="18">
         <v>13</v>
       </c>
-      <c r="B21" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
+      <c r="B21" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
       <c r="I21" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
         <v>14</v>
       </c>
-      <c r="B22" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="95"/>
+      <c r="B22" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
       <c r="I22" s="31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
@@ -2575,51 +2575,51 @@
     </row>
     <row r="24" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
+      <c r="B24" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
     </row>
     <row r="25" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
+      <c r="B25" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
+      <c r="B26" s="48" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="42"/>
-      <c r="B27" s="97" t="s">
-        <v>278</v>
-      </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
+      <c r="B27" s="98" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="42"/>
@@ -2632,185 +2632,185 @@
       <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="81"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="66"/>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="69"/>
     </row>
     <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="61" t="s">
+      <c r="A31" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="63"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="75"/>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="63"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="63"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="75"/>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="63"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="63"/>
+      <c r="A35" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="75"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="68"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="77"/>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57" t="s">
+      <c r="C37" s="62"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="57" t="s">
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="58"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="58" t="s">
+      <c r="I37" s="56"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="L37" s="58"/>
-      <c r="M37" s="59"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="57"/>
       <c r="N37" s="3" t="s">
         <v>2</v>
       </c>
@@ -2822,30 +2822,30 @@
         <v>1</v>
       </c>
       <c r="B38" s="49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="72" t="s">
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I38" s="73"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="73"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="O38" s="70"/>
-      <c r="P38" s="71"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="79"/>
+      <c r="P38" s="80"/>
     </row>
     <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -2858,11 +2858,11 @@
       <c r="H39" s="49"/>
       <c r="I39" s="50"/>
       <c r="J39" s="51"/>
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="46"/>
-      <c r="M39" s="47"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="60"/>
       <c r="N39" s="49"/>
       <c r="O39" s="50"/>
       <c r="P39" s="51"/>
@@ -2878,16 +2878,16 @@
       <c r="H40" s="49"/>
       <c r="I40" s="50"/>
       <c r="J40" s="51"/>
-      <c r="K40" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="48" t="s">
+      <c r="K40" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="L40" s="59"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O40" s="46"/>
-      <c r="P40" s="47"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="60"/>
     </row>
     <row r="41" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -2900,11 +2900,11 @@
       <c r="H41" s="49"/>
       <c r="I41" s="50"/>
       <c r="J41" s="51"/>
-      <c r="K41" s="46" t="s">
+      <c r="K41" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L41" s="46"/>
-      <c r="M41" s="47"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="60"/>
       <c r="N41" s="49"/>
       <c r="O41" s="50"/>
       <c r="P41" s="51"/>
@@ -2914,55 +2914,55 @@
         <v>2</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F42" s="50"/>
       <c r="G42" s="51"/>
-      <c r="H42" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="L42" s="46"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="O42" s="46"/>
-      <c r="P42" s="47"/>
+      <c r="H42" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="I42" s="59"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="L42" s="59"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="O42" s="59"/>
+      <c r="P42" s="60"/>
     </row>
     <row r="43" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2.1</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="49" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F43" s="50"/>
       <c r="G43" s="51"/>
-      <c r="H43" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L43" s="46"/>
-      <c r="M43" s="47"/>
+      <c r="H43" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="I43" s="59"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="59" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" s="59"/>
+      <c r="M43" s="60"/>
       <c r="N43" s="49" t="s">
         <v>16</v>
       </c>
@@ -2974,25 +2974,25 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="49" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="F44" s="50"/>
       <c r="G44" s="51"/>
-      <c r="H44" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="I44" s="46"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="L44" s="46"/>
-      <c r="M44" s="47"/>
+      <c r="H44" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="I44" s="59"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="L44" s="59"/>
+      <c r="M44" s="60"/>
       <c r="N44" s="49" t="s">
         <v>16</v>
       </c>
@@ -3003,91 +3003,91 @@
       <c r="A45" s="9">
         <v>2.4</v>
       </c>
-      <c r="B45" s="48" t="s">
-        <v>283</v>
-      </c>
-      <c r="C45" s="46"/>
-      <c r="D45" s="47"/>
+      <c r="B45" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="49" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
-      <c r="H45" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="I45" s="46"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="L45" s="46"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="O45" s="46"/>
-      <c r="P45" s="47"/>
+      <c r="H45" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="I45" s="59"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="L45" s="59"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="O45" s="59"/>
+      <c r="P45" s="60"/>
     </row>
     <row r="46" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2.5</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F46" s="50"/>
       <c r="G46" s="51"/>
-      <c r="H46" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="I46" s="46"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="46" t="s">
+      <c r="H46" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="I46" s="59"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="L46" s="59"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="O46" s="46"/>
-      <c r="P46" s="47"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="60"/>
     </row>
     <row r="47" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2.6</v>
       </c>
-      <c r="B47" s="54" t="s">
-        <v>285</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="54" t="s">
-        <v>287</v>
-      </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="I47" s="65"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="L47" s="65"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="64" t="s">
-        <v>298</v>
-      </c>
-      <c r="O47" s="65"/>
-      <c r="P47" s="66"/>
+      <c r="B47" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="I47" s="71"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="L47" s="71"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="O47" s="71"/>
+      <c r="P47" s="72"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="42"/>
@@ -3100,62 +3100,62 @@
       <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="98" t="s">
-        <v>273</v>
-      </c>
-      <c r="B49" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
+      <c r="A49" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="42"/>
-      <c r="B50" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
+      <c r="B50" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="42"/>
-      <c r="B51" s="85" t="s">
-        <v>276</v>
-      </c>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
+      <c r="B51" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="42"/>
-      <c r="B52" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
+      <c r="B52" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
@@ -3177,85 +3177,85 @@
       <c r="G54" s="12"/>
     </row>
     <row r="55" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="79" t="s">
+      <c r="A55" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="81"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="66"/>
     </row>
     <row r="56" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="84"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="69"/>
     </row>
     <row r="57" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="61" t="s">
+      <c r="A57" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="J57" s="61"/>
-      <c r="K57" s="61"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="61"/>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="63"/>
-      <c r="T57" s="75"/>
-      <c r="U57" s="76"/>
-      <c r="V57" s="76"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="75"/>
+      <c r="T57" s="93"/>
+      <c r="U57" s="94"/>
+      <c r="V57" s="94"/>
     </row>
     <row r="58" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="61"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="61"/>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="63"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="74"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="74"/>
+      <c r="M58" s="74"/>
+      <c r="N58" s="74"/>
+      <c r="O58" s="74"/>
+      <c r="P58" s="75"/>
       <c r="S58" s="12"/>
       <c r="T58" s="21"/>
       <c r="U58" s="36"/>
@@ -3264,26 +3264,26 @@
       <c r="X58" s="12"/>
     </row>
     <row r="59" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="J59" s="61"/>
-      <c r="K59" s="61"/>
-      <c r="L59" s="61"/>
-      <c r="M59" s="61"/>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="63"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="74"/>
+      <c r="P59" s="75"/>
       <c r="S59" s="12"/>
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
@@ -3292,48 +3292,48 @@
       <c r="X59" s="12"/>
     </row>
     <row r="60" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="61"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="63"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="75"/>
       <c r="S60" s="12"/>
-      <c r="T60" s="77"/>
-      <c r="U60" s="78"/>
-      <c r="V60" s="78"/>
+      <c r="T60" s="95"/>
+      <c r="U60" s="96"/>
+      <c r="V60" s="96"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
     </row>
     <row r="61" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="63"/>
+      <c r="A61" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="74"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="75"/>
       <c r="S61" s="12"/>
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
@@ -3342,22 +3342,22 @@
       <c r="X61" s="12"/>
     </row>
     <row r="62" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="O62" s="67"/>
-      <c r="P62" s="68"/>
+      <c r="A62" s="76"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="76"/>
+      <c r="O62" s="76"/>
+      <c r="P62" s="77"/>
       <c r="S62" s="12"/>
       <c r="T62" s="37"/>
       <c r="U62" s="21"/>
@@ -3369,26 +3369,26 @@
       <c r="A63" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="57" t="s">
+      <c r="C63" s="56"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="57" t="s">
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="58"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="58" t="s">
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="L63" s="58"/>
-      <c r="M63" s="59"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="57"/>
       <c r="N63" s="3" t="s">
         <v>2</v>
       </c>
@@ -3405,31 +3405,31 @@
       <c r="A64" s="1">
         <v>1</v>
       </c>
-      <c r="B64" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="72" t="s">
+      <c r="B64" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="53"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="73"/>
-      <c r="G64" s="74"/>
-      <c r="H64" s="72" t="s">
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I64" s="73"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="L64" s="73"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="O64" s="70"/>
-      <c r="P64" s="71"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="L64" s="53"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="O64" s="79"/>
+      <c r="P64" s="80"/>
       <c r="S64" s="12"/>
       <c r="T64" s="37"/>
       <c r="U64" s="21"/>
@@ -3448,11 +3448,11 @@
       <c r="H65" s="49"/>
       <c r="I65" s="50"/>
       <c r="J65" s="51"/>
-      <c r="K65" s="48" t="s">
+      <c r="K65" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L65" s="46"/>
-      <c r="M65" s="47"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="60"/>
       <c r="N65" s="49"/>
       <c r="O65" s="50"/>
       <c r="P65" s="51"/>
@@ -3474,16 +3474,16 @@
       <c r="H66" s="49"/>
       <c r="I66" s="50"/>
       <c r="J66" s="51"/>
-      <c r="K66" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="L66" s="46"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="48" t="s">
+      <c r="K66" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="L66" s="59"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O66" s="46"/>
-      <c r="P66" s="47"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="60"/>
       <c r="S66" s="12"/>
       <c r="T66" s="37"/>
       <c r="U66" s="21"/>
@@ -3502,11 +3502,11 @@
       <c r="H67" s="49"/>
       <c r="I67" s="50"/>
       <c r="J67" s="51"/>
-      <c r="K67" s="46" t="s">
+      <c r="K67" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L67" s="46"/>
-      <c r="M67" s="47"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="60"/>
       <c r="N67" s="49"/>
       <c r="O67" s="50"/>
       <c r="P67" s="51"/>
@@ -3522,30 +3522,30 @@
         <v>2</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C68" s="50"/>
       <c r="D68" s="51"/>
       <c r="E68" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F68" s="50"/>
       <c r="G68" s="51"/>
-      <c r="H68" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" s="46"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="L68" s="46"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="O68" s="46"/>
-      <c r="P68" s="47"/>
+      <c r="H68" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I68" s="59"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="L68" s="59"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="O68" s="59"/>
+      <c r="P68" s="60"/>
       <c r="S68" s="12"/>
       <c r="T68" s="37"/>
       <c r="U68" s="21"/>
@@ -3558,25 +3558,25 @@
         <v>2.1</v>
       </c>
       <c r="B69" s="49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C69" s="50"/>
       <c r="D69" s="51"/>
       <c r="E69" s="49" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F69" s="50"/>
       <c r="G69" s="51"/>
-      <c r="H69" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="I69" s="46"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="L69" s="46"/>
-      <c r="M69" s="47"/>
+      <c r="H69" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69" s="59"/>
+      <c r="J69" s="60"/>
+      <c r="K69" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="L69" s="59"/>
+      <c r="M69" s="60"/>
       <c r="N69" s="49" t="s">
         <v>16</v>
       </c>
@@ -3594,25 +3594,25 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B70" s="49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C70" s="50"/>
       <c r="D70" s="51"/>
       <c r="E70" s="49" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F70" s="50"/>
       <c r="G70" s="51"/>
-      <c r="H70" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="I70" s="46"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="L70" s="46"/>
-      <c r="M70" s="47"/>
+      <c r="H70" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I70" s="59"/>
+      <c r="J70" s="60"/>
+      <c r="K70" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="L70" s="59"/>
+      <c r="M70" s="60"/>
       <c r="N70" s="49" t="s">
         <v>16</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B71" s="49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C71" s="50"/>
       <c r="D71" s="51"/>
@@ -3639,16 +3639,16 @@
       </c>
       <c r="F71" s="50"/>
       <c r="G71" s="51"/>
-      <c r="H71" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I71" s="46"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="L71" s="46"/>
-      <c r="M71" s="47"/>
+      <c r="H71" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I71" s="59"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="L71" s="59"/>
+      <c r="M71" s="60"/>
       <c r="N71" s="49" t="s">
         <v>16</v>
       </c>
@@ -3666,25 +3666,25 @@
         <v>2.4</v>
       </c>
       <c r="B72" s="49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C72" s="50"/>
       <c r="D72" s="51"/>
       <c r="E72" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F72" s="50"/>
       <c r="G72" s="51"/>
-      <c r="H72" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="I72" s="46"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="L72" s="46"/>
-      <c r="M72" s="47"/>
+      <c r="H72" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="I72" s="59"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="L72" s="59"/>
+      <c r="M72" s="60"/>
       <c r="N72" s="49" t="s">
         <v>16</v>
       </c>
@@ -3702,30 +3702,30 @@
         <v>3</v>
       </c>
       <c r="B73" s="49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C73" s="50"/>
       <c r="D73" s="51"/>
       <c r="E73" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F73" s="50"/>
       <c r="G73" s="51"/>
-      <c r="H73" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="46"/>
-      <c r="J73" s="47"/>
-      <c r="K73" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="L73" s="46"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="O73" s="46"/>
-      <c r="P73" s="47"/>
+      <c r="H73" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I73" s="59"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="L73" s="59"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="O73" s="59"/>
+      <c r="P73" s="60"/>
       <c r="S73" s="12"/>
       <c r="T73" s="37"/>
       <c r="U73" s="21"/>
@@ -3738,25 +3738,25 @@
         <v>3.1</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C74" s="50"/>
       <c r="D74" s="51"/>
       <c r="E74" s="49" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F74" s="50"/>
       <c r="G74" s="51"/>
       <c r="H74" s="49" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I74" s="50"/>
       <c r="J74" s="51"/>
-      <c r="K74" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="L74" s="46"/>
-      <c r="M74" s="47"/>
+      <c r="K74" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="L74" s="59"/>
+      <c r="M74" s="60"/>
       <c r="N74" s="49" t="s">
         <v>16</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>3.2</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C75" s="50"/>
       <c r="D75" s="51"/>
@@ -3784,15 +3784,15 @@
       <c r="F75" s="50"/>
       <c r="G75" s="51"/>
       <c r="H75" s="49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I75" s="50"/>
       <c r="J75" s="51"/>
-      <c r="K75" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="L75" s="46"/>
-      <c r="M75" s="47"/>
+      <c r="K75" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="L75" s="59"/>
+      <c r="M75" s="60"/>
       <c r="N75" s="49" t="s">
         <v>16</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>3.3</v>
       </c>
       <c r="B76" s="49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C76" s="50"/>
       <c r="D76" s="51"/>
@@ -3820,15 +3820,15 @@
       <c r="F76" s="50"/>
       <c r="G76" s="51"/>
       <c r="H76" s="49" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I76" s="50"/>
       <c r="J76" s="51"/>
-      <c r="K76" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="L76" s="46"/>
-      <c r="M76" s="47"/>
+      <c r="K76" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="L76" s="59"/>
+      <c r="M76" s="60"/>
       <c r="N76" s="49" t="s">
         <v>16</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>3.4</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C77" s="50"/>
       <c r="D77" s="51"/>
@@ -3856,15 +3856,15 @@
       <c r="F77" s="50"/>
       <c r="G77" s="51"/>
       <c r="H77" s="50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I77" s="50"/>
       <c r="J77" s="51"/>
-      <c r="K77" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="L77" s="46"/>
-      <c r="M77" s="47"/>
+      <c r="K77" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="L77" s="59"/>
+      <c r="M77" s="60"/>
       <c r="N77" s="50" t="s">
         <v>16</v>
       </c>
@@ -3881,31 +3881,31 @@
       <c r="A78" s="2">
         <v>4</v>
       </c>
-      <c r="B78" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78" s="55"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F78" s="55"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="I78" s="55"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="L78" s="65"/>
-      <c r="M78" s="66"/>
-      <c r="N78" s="54" t="s">
+      <c r="B78" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="I78" s="62"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="L78" s="71"/>
+      <c r="M78" s="72"/>
+      <c r="N78" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="O78" s="55"/>
-      <c r="P78" s="56"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="63"/>
       <c r="S78" s="12"/>
       <c r="T78" s="37"/>
       <c r="U78" s="21"/>
@@ -3922,26 +3922,26 @@
       <c r="X79" s="12"/>
     </row>
     <row r="80" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="60" t="s">
+      <c r="A80" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J80" s="60"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="60"/>
-      <c r="O80" s="60"/>
-      <c r="P80" s="62"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
+      <c r="N80" s="73"/>
+      <c r="O80" s="73"/>
+      <c r="P80" s="81"/>
       <c r="S80" s="12"/>
       <c r="T80" s="29"/>
       <c r="U80" s="38"/>
@@ -3950,130 +3950,130 @@
       <c r="X80" s="12"/>
     </row>
     <row r="81" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="61"/>
-      <c r="B81" s="61"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="61"/>
-      <c r="F81" s="61"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="61"/>
-      <c r="I81" s="61"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="61"/>
-      <c r="L81" s="61"/>
-      <c r="M81" s="61"/>
-      <c r="N81" s="61"/>
-      <c r="O81" s="61"/>
-      <c r="P81" s="63"/>
+      <c r="A81" s="74"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="74"/>
+      <c r="I81" s="74"/>
+      <c r="J81" s="74"/>
+      <c r="K81" s="74"/>
+      <c r="L81" s="74"/>
+      <c r="M81" s="74"/>
+      <c r="N81" s="74"/>
+      <c r="O81" s="74"/>
+      <c r="P81" s="75"/>
       <c r="T81" s="19"/>
       <c r="U81" s="20"/>
     </row>
     <row r="82" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="61"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="61"/>
-      <c r="I82" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="J82" s="61"/>
-      <c r="K82" s="61"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="61"/>
-      <c r="N82" s="61"/>
-      <c r="O82" s="61"/>
-      <c r="P82" s="63"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="74"/>
+      <c r="P82" s="75"/>
       <c r="T82" s="19"/>
       <c r="U82" s="19"/>
       <c r="V82" s="21"/>
     </row>
     <row r="83" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="61"/>
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="61"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="61"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="61"/>
-      <c r="N83" s="61"/>
-      <c r="O83" s="61"/>
-      <c r="P83" s="63"/>
+      <c r="A83" s="74"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="74"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="75"/>
     </row>
     <row r="84" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="61"/>
-      <c r="I84" s="61"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="61"/>
-      <c r="L84" s="61"/>
-      <c r="M84" s="61"/>
-      <c r="N84" s="61"/>
-      <c r="O84" s="61"/>
-      <c r="P84" s="63"/>
+      <c r="A84" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="74"/>
+      <c r="G84" s="74"/>
+      <c r="H84" s="74"/>
+      <c r="I84" s="74"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="75"/>
     </row>
     <row r="85" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
-      <c r="B85" s="67"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
-      <c r="P85" s="68"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="76"/>
+      <c r="C85" s="76"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="76"/>
+      <c r="I85" s="76"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="76"/>
+      <c r="L85" s="76"/>
+      <c r="M85" s="76"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="76"/>
+      <c r="P85" s="77"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="57" t="s">
+      <c r="B86" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="58"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="57" t="s">
+      <c r="C86" s="56"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="57" t="s">
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I86" s="58"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="58" t="s">
+      <c r="I86" s="56"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="L86" s="58"/>
-      <c r="M86" s="59"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="57"/>
       <c r="N86" s="3" t="s">
         <v>2</v>
       </c>
@@ -4084,31 +4084,31 @@
       <c r="A87" s="1">
         <v>1</v>
       </c>
-      <c r="B87" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="72" t="s">
+      <c r="B87" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="53"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F87" s="73"/>
-      <c r="G87" s="74"/>
-      <c r="H87" s="72" t="s">
+      <c r="F87" s="53"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I87" s="73"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="L87" s="73"/>
-      <c r="M87" s="74"/>
-      <c r="N87" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="O87" s="70"/>
-      <c r="P87" s="71"/>
+      <c r="I87" s="53"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="L87" s="53"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="O87" s="79"/>
+      <c r="P87" s="80"/>
     </row>
     <row r="88" spans="1:22" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
@@ -4121,16 +4121,16 @@
       <c r="H88" s="49"/>
       <c r="I88" s="50"/>
       <c r="J88" s="51"/>
-      <c r="K88" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="L88" s="46"/>
-      <c r="M88" s="47"/>
-      <c r="N88" s="48" t="s">
+      <c r="K88" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="L88" s="59"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O88" s="46"/>
-      <c r="P88" s="47"/>
+      <c r="O88" s="59"/>
+      <c r="P88" s="60"/>
     </row>
     <row r="89" spans="1:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
@@ -4143,11 +4143,11 @@
       <c r="H89" s="49"/>
       <c r="I89" s="50"/>
       <c r="J89" s="51"/>
-      <c r="K89" s="48" t="s">
+      <c r="K89" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="L89" s="46"/>
-      <c r="M89" s="47"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="60"/>
       <c r="N89" s="49"/>
       <c r="O89" s="50"/>
       <c r="P89" s="51"/>
@@ -4157,22 +4157,22 @@
         <v>2</v>
       </c>
       <c r="B90" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C90" s="50"/>
       <c r="D90" s="51"/>
       <c r="E90" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F90" s="50"/>
       <c r="G90" s="50"/>
       <c r="H90" s="49" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I90" s="50"/>
       <c r="J90" s="51"/>
       <c r="K90" s="50" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L90" s="50"/>
       <c r="M90" s="51"/>
@@ -4187,25 +4187,25 @@
         <v>2.1</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C91" s="50"/>
       <c r="D91" s="51"/>
       <c r="E91" s="49" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F91" s="50"/>
       <c r="G91" s="51"/>
-      <c r="H91" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="I91" s="46"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="L91" s="46"/>
-      <c r="M91" s="47"/>
+      <c r="H91" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I91" s="59"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="L91" s="59"/>
+      <c r="M91" s="60"/>
       <c r="N91" s="49" t="s">
         <v>16</v>
       </c>
@@ -4216,691 +4216,691 @@
       <c r="A92" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" s="46"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I92" s="46"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L92" s="46"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="48" t="s">
+      <c r="B92" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="59"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="59"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I92" s="59"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L92" s="59"/>
+      <c r="M92" s="60"/>
+      <c r="N92" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O92" s="46"/>
-      <c r="P92" s="47"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="60"/>
     </row>
     <row r="93" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B93" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="46"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F93" s="46"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="I93" s="46"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L93" s="46"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="48" t="s">
+      <c r="B93" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="59"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="59"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I93" s="59"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L93" s="59"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O93" s="46"/>
-      <c r="P93" s="47"/>
+      <c r="O93" s="59"/>
+      <c r="P93" s="60"/>
     </row>
     <row r="94" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>3</v>
       </c>
-      <c r="B94" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="46"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="F94" s="46"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="I94" s="46"/>
-      <c r="J94" s="47"/>
-      <c r="K94" s="46" t="s">
+      <c r="B94" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="59"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="59"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="I94" s="59"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L94" s="46"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="48" t="s">
+      <c r="L94" s="59"/>
+      <c r="M94" s="60"/>
+      <c r="N94" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O94" s="46"/>
-      <c r="P94" s="47"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="60"/>
     </row>
     <row r="95" spans="1:22" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>3.1</v>
       </c>
-      <c r="B95" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="46"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F95" s="46"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I95" s="46"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L95" s="46"/>
-      <c r="M95" s="47"/>
-      <c r="N95" s="48" t="s">
+      <c r="B95" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="59"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" s="59"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I95" s="59"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L95" s="59"/>
+      <c r="M95" s="60"/>
+      <c r="N95" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O95" s="46"/>
-      <c r="P95" s="47"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="60"/>
     </row>
     <row r="96" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>3.2</v>
       </c>
-      <c r="B96" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" s="46"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="I96" s="46"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L96" s="46"/>
-      <c r="M96" s="47"/>
-      <c r="N96" s="48" t="s">
+      <c r="B96" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="59"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F96" s="59"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I96" s="59"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L96" s="59"/>
+      <c r="M96" s="60"/>
+      <c r="N96" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O96" s="46"/>
-      <c r="P96" s="47"/>
+      <c r="O96" s="59"/>
+      <c r="P96" s="60"/>
     </row>
     <row r="97" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>3.3</v>
       </c>
-      <c r="B97" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" s="46"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F97" s="46"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="I97" s="46"/>
-      <c r="J97" s="47"/>
-      <c r="K97" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L97" s="46"/>
-      <c r="M97" s="47"/>
-      <c r="N97" s="48" t="s">
+      <c r="B97" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="59"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" s="59"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I97" s="59"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L97" s="59"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O97" s="46"/>
-      <c r="P97" s="47"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="60"/>
     </row>
     <row r="98" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>4</v>
       </c>
-      <c r="B98" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C98" s="46"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="48" t="s">
+      <c r="B98" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="59"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98" s="59"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="F98" s="46"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="48" t="s">
+      <c r="I98" s="59"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I98" s="46"/>
-      <c r="J98" s="47"/>
-      <c r="K98" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="L98" s="46"/>
-      <c r="M98" s="47"/>
-      <c r="N98" s="48" t="s">
+      <c r="L98" s="59"/>
+      <c r="M98" s="60"/>
+      <c r="N98" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O98" s="46"/>
-      <c r="P98" s="47"/>
+      <c r="O98" s="59"/>
+      <c r="P98" s="60"/>
     </row>
     <row r="99" spans="1:16" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B99" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99" s="46"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F99" s="46"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I99" s="46"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L99" s="46"/>
-      <c r="M99" s="47"/>
-      <c r="N99" s="48" t="s">
+      <c r="B99" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" s="59"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" s="59"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I99" s="59"/>
+      <c r="J99" s="60"/>
+      <c r="K99" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L99" s="59"/>
+      <c r="M99" s="60"/>
+      <c r="N99" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O99" s="46"/>
-      <c r="P99" s="47"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="60"/>
     </row>
     <row r="100" spans="1:16" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>4.2</v>
       </c>
-      <c r="B100" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" s="46"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F100" s="46"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="I100" s="46"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="L100" s="46"/>
-      <c r="M100" s="47"/>
-      <c r="N100" s="48" t="s">
+      <c r="B100" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" s="59"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F100" s="59"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I100" s="59"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="L100" s="59"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O100" s="46"/>
-      <c r="P100" s="47"/>
+      <c r="O100" s="59"/>
+      <c r="P100" s="60"/>
     </row>
     <row r="101" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>4.3</v>
       </c>
-      <c r="B101" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C101" s="46"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F101" s="46"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="I101" s="46"/>
-      <c r="J101" s="47"/>
-      <c r="K101" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L101" s="46"/>
-      <c r="M101" s="47"/>
-      <c r="N101" s="48" t="s">
+      <c r="B101" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="59"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F101" s="59"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I101" s="59"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L101" s="59"/>
+      <c r="M101" s="60"/>
+      <c r="N101" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="46"/>
-      <c r="P101" s="47"/>
+      <c r="O101" s="59"/>
+      <c r="P101" s="60"/>
     </row>
     <row r="102" spans="1:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>5.4</v>
       </c>
-      <c r="B102" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="46"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="F102" s="46"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="I102" s="46"/>
-      <c r="J102" s="47"/>
-      <c r="K102" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="L102" s="46"/>
-      <c r="M102" s="47"/>
-      <c r="N102" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="O102" s="46"/>
-      <c r="P102" s="47"/>
+      <c r="B102" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="59"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" s="59"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="I102" s="59"/>
+      <c r="J102" s="60"/>
+      <c r="K102" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="L102" s="59"/>
+      <c r="M102" s="60"/>
+      <c r="N102" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="O102" s="59"/>
+      <c r="P102" s="60"/>
     </row>
     <row r="103" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>5</v>
       </c>
-      <c r="B103" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C103" s="46"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="F103" s="46"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="48" t="s">
+      <c r="B103" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="59"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F103" s="59"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="I103" s="59"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="I103" s="46"/>
-      <c r="J103" s="47"/>
-      <c r="K103" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="L103" s="46"/>
-      <c r="M103" s="47"/>
-      <c r="N103" s="48" t="s">
+      <c r="L103" s="59"/>
+      <c r="M103" s="60"/>
+      <c r="N103" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O103" s="46"/>
-      <c r="P103" s="47"/>
+      <c r="O103" s="59"/>
+      <c r="P103" s="60"/>
     </row>
     <row r="104" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B104" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104" s="46"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F104" s="46"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I104" s="46"/>
-      <c r="J104" s="47"/>
-      <c r="K104" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L104" s="46"/>
-      <c r="M104" s="47"/>
-      <c r="N104" s="48" t="s">
+      <c r="B104" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C104" s="59"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F104" s="59"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="I104" s="59"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L104" s="59"/>
+      <c r="M104" s="60"/>
+      <c r="N104" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O104" s="46"/>
-      <c r="P104" s="47"/>
+      <c r="O104" s="59"/>
+      <c r="P104" s="60"/>
     </row>
     <row r="105" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>5.2</v>
       </c>
-      <c r="B105" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C105" s="46"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F105" s="46"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="I105" s="46"/>
-      <c r="J105" s="47"/>
-      <c r="K105" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L105" s="46"/>
-      <c r="M105" s="47"/>
-      <c r="N105" s="48" t="s">
+      <c r="B105" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="59"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F105" s="59"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I105" s="59"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L105" s="59"/>
+      <c r="M105" s="60"/>
+      <c r="N105" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O105" s="46"/>
-      <c r="P105" s="47"/>
+      <c r="O105" s="59"/>
+      <c r="P105" s="60"/>
     </row>
     <row r="106" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>5.3</v>
       </c>
-      <c r="B106" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" s="46"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F106" s="46"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="I106" s="46"/>
-      <c r="J106" s="47"/>
-      <c r="K106" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="L106" s="46"/>
-      <c r="M106" s="47"/>
-      <c r="N106" s="48" t="s">
+      <c r="B106" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" s="59"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" s="59"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="I106" s="59"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="L106" s="59"/>
+      <c r="M106" s="60"/>
+      <c r="N106" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O106" s="46"/>
-      <c r="P106" s="47"/>
+      <c r="O106" s="59"/>
+      <c r="P106" s="60"/>
     </row>
     <row r="107" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>5.4</v>
       </c>
-      <c r="B107" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C107" s="46"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="48" t="s">
-        <v>139</v>
-      </c>
-      <c r="F107" s="46"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="I107" s="46"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="L107" s="46"/>
-      <c r="M107" s="47"/>
-      <c r="N107" s="48" t="s">
+      <c r="B107" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F107" s="59"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="I107" s="59"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="L107" s="59"/>
+      <c r="M107" s="60"/>
+      <c r="N107" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O107" s="46"/>
-      <c r="P107" s="47"/>
+      <c r="O107" s="59"/>
+      <c r="P107" s="60"/>
     </row>
     <row r="108" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>6</v>
       </c>
-      <c r="B108" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C108" s="46"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F108" s="46"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="I108" s="46"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="L108" s="46"/>
-      <c r="M108" s="47"/>
-      <c r="N108" s="48" t="s">
+      <c r="B108" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="C108" s="59"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F108" s="59"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="I108" s="59"/>
+      <c r="J108" s="60"/>
+      <c r="K108" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="L108" s="59"/>
+      <c r="M108" s="60"/>
+      <c r="N108" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O108" s="46"/>
-      <c r="P108" s="47"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="60"/>
     </row>
     <row r="109" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>7</v>
       </c>
-      <c r="B109" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" s="46"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="48" t="s">
+      <c r="B109" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="C109" s="59"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F109" s="59"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="F109" s="46"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I109" s="46"/>
-      <c r="J109" s="47"/>
-      <c r="K109" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="L109" s="46"/>
-      <c r="M109" s="47"/>
-      <c r="N109" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="O109" s="46"/>
-      <c r="P109" s="47"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="60"/>
+      <c r="K109" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="L109" s="59"/>
+      <c r="M109" s="60"/>
+      <c r="N109" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="O109" s="59"/>
+      <c r="P109" s="60"/>
     </row>
     <row r="110" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>7.1</v>
       </c>
-      <c r="B110" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C110" s="46"/>
-      <c r="D110" s="47"/>
-      <c r="E110" s="48" t="s">
+      <c r="B110" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C110" s="59"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F110" s="59"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="F110" s="46"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="I110" s="46"/>
-      <c r="J110" s="47"/>
-      <c r="K110" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="L110" s="46"/>
-      <c r="M110" s="47"/>
-      <c r="N110" s="48" t="s">
+      <c r="I110" s="59"/>
+      <c r="J110" s="60"/>
+      <c r="K110" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="L110" s="59"/>
+      <c r="M110" s="60"/>
+      <c r="N110" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O110" s="46"/>
-      <c r="P110" s="47"/>
+      <c r="O110" s="59"/>
+      <c r="P110" s="60"/>
     </row>
     <row r="111" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>8</v>
       </c>
-      <c r="B111" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111" s="46"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="F111" s="46"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="I111" s="46"/>
-      <c r="J111" s="47"/>
-      <c r="K111" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="L111" s="46"/>
-      <c r="M111" s="47"/>
-      <c r="N111" s="48" t="s">
+      <c r="B111" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111" s="59"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F111" s="59"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="I111" s="59"/>
+      <c r="J111" s="60"/>
+      <c r="K111" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="L111" s="59"/>
+      <c r="M111" s="60"/>
+      <c r="N111" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O111" s="46"/>
-      <c r="P111" s="47"/>
+      <c r="O111" s="59"/>
+      <c r="P111" s="60"/>
     </row>
     <row r="112" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>8.1</v>
       </c>
-      <c r="B112" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" s="46"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F112" s="46"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="I112" s="46"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="L112" s="46"/>
-      <c r="M112" s="47"/>
-      <c r="N112" s="48" t="s">
+      <c r="B112" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="C112" s="59"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" s="59"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="I112" s="59"/>
+      <c r="J112" s="60"/>
+      <c r="K112" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="L112" s="59"/>
+      <c r="M112" s="60"/>
+      <c r="N112" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O112" s="46"/>
-      <c r="P112" s="47"/>
+      <c r="O112" s="59"/>
+      <c r="P112" s="60"/>
     </row>
     <row r="113" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B113" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C113" s="46"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F113" s="46"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="I113" s="46"/>
-      <c r="J113" s="47"/>
-      <c r="K113" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="L113" s="46"/>
-      <c r="M113" s="47"/>
-      <c r="N113" s="48" t="s">
+      <c r="B113" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="C113" s="59"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="F113" s="59"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="I113" s="59"/>
+      <c r="J113" s="60"/>
+      <c r="K113" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="L113" s="59"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O113" s="46"/>
-      <c r="P113" s="47"/>
+      <c r="O113" s="59"/>
+      <c r="P113" s="60"/>
     </row>
     <row r="114" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B114" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C114" s="65"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="F114" s="65"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="I114" s="65"/>
-      <c r="J114" s="66"/>
-      <c r="K114" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="L114" s="65"/>
-      <c r="M114" s="66"/>
-      <c r="N114" s="65" t="s">
+      <c r="B114" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="71"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F114" s="71"/>
+      <c r="G114" s="72"/>
+      <c r="H114" s="70" t="s">
+        <v>306</v>
+      </c>
+      <c r="I114" s="71"/>
+      <c r="J114" s="72"/>
+      <c r="K114" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="L114" s="71"/>
+      <c r="M114" s="72"/>
+      <c r="N114" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O114" s="65"/>
-      <c r="P114" s="66"/>
+      <c r="O114" s="71"/>
+      <c r="P114" s="72"/>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
@@ -4921,147 +4921,147 @@
       <c r="P115" s="7"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B116" s="60"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="60"/>
-      <c r="E116" s="60"/>
-      <c r="F116" s="60"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="60" t="s">
+      <c r="A116" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="73"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="73"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="73"/>
+      <c r="G116" s="73"/>
+      <c r="H116" s="73"/>
+      <c r="I116" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J116" s="60"/>
-      <c r="K116" s="60"/>
-      <c r="L116" s="60"/>
-      <c r="M116" s="60"/>
-      <c r="N116" s="60"/>
-      <c r="O116" s="60"/>
-      <c r="P116" s="62"/>
+      <c r="J116" s="73"/>
+      <c r="K116" s="73"/>
+      <c r="L116" s="73"/>
+      <c r="M116" s="73"/>
+      <c r="N116" s="73"/>
+      <c r="O116" s="73"/>
+      <c r="P116" s="81"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="61"/>
-      <c r="B117" s="61"/>
-      <c r="C117" s="61"/>
-      <c r="D117" s="61"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="61"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="61"/>
-      <c r="I117" s="61"/>
-      <c r="J117" s="61"/>
-      <c r="K117" s="61"/>
-      <c r="L117" s="61"/>
-      <c r="M117" s="61"/>
-      <c r="N117" s="61"/>
-      <c r="O117" s="61"/>
-      <c r="P117" s="63"/>
+      <c r="A117" s="74"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="74"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="74"/>
+      <c r="O117" s="74"/>
+      <c r="P117" s="75"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="61" t="s">
+      <c r="A118" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="61"/>
-      <c r="C118" s="61"/>
-      <c r="D118" s="61"/>
-      <c r="E118" s="61"/>
-      <c r="F118" s="61"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="61"/>
-      <c r="I118" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="J118" s="61"/>
-      <c r="K118" s="61"/>
-      <c r="L118" s="61"/>
-      <c r="M118" s="61"/>
-      <c r="N118" s="61"/>
-      <c r="O118" s="61"/>
-      <c r="P118" s="63"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="74"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="74"/>
+      <c r="G118" s="74"/>
+      <c r="H118" s="74"/>
+      <c r="I118" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="J118" s="74"/>
+      <c r="K118" s="74"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="74"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="74"/>
+      <c r="P118" s="75"/>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="61"/>
-      <c r="B119" s="61"/>
-      <c r="C119" s="61"/>
-      <c r="D119" s="61"/>
-      <c r="E119" s="61"/>
-      <c r="F119" s="61"/>
-      <c r="G119" s="61"/>
-      <c r="H119" s="61"/>
-      <c r="I119" s="61"/>
-      <c r="J119" s="61"/>
-      <c r="K119" s="61"/>
-      <c r="L119" s="61"/>
-      <c r="M119" s="61"/>
-      <c r="N119" s="61"/>
-      <c r="O119" s="61"/>
-      <c r="P119" s="63"/>
+      <c r="A119" s="74"/>
+      <c r="B119" s="74"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
+      <c r="G119" s="74"/>
+      <c r="H119" s="74"/>
+      <c r="I119" s="74"/>
+      <c r="J119" s="74"/>
+      <c r="K119" s="74"/>
+      <c r="L119" s="74"/>
+      <c r="M119" s="74"/>
+      <c r="N119" s="74"/>
+      <c r="O119" s="74"/>
+      <c r="P119" s="75"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120" s="61"/>
-      <c r="C120" s="61"/>
-      <c r="D120" s="61"/>
-      <c r="E120" s="61"/>
-      <c r="F120" s="61"/>
-      <c r="G120" s="61"/>
-      <c r="H120" s="61"/>
-      <c r="I120" s="61"/>
-      <c r="J120" s="61"/>
-      <c r="K120" s="61"/>
-      <c r="L120" s="61"/>
-      <c r="M120" s="61"/>
-      <c r="N120" s="61"/>
-      <c r="O120" s="61"/>
-      <c r="P120" s="63"/>
+      <c r="A120" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" s="74"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="74"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="74"/>
+      <c r="M120" s="74"/>
+      <c r="N120" s="74"/>
+      <c r="O120" s="74"/>
+      <c r="P120" s="75"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="67"/>
-      <c r="J121" s="67"/>
-      <c r="K121" s="67"/>
-      <c r="L121" s="67"/>
-      <c r="M121" s="67"/>
-      <c r="N121" s="67"/>
-      <c r="O121" s="67"/>
-      <c r="P121" s="68"/>
+      <c r="A121" s="76"/>
+      <c r="B121" s="76"/>
+      <c r="C121" s="76"/>
+      <c r="D121" s="76"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="76"/>
+      <c r="H121" s="76"/>
+      <c r="I121" s="76"/>
+      <c r="J121" s="76"/>
+      <c r="K121" s="76"/>
+      <c r="L121" s="76"/>
+      <c r="M121" s="76"/>
+      <c r="N121" s="76"/>
+      <c r="O121" s="76"/>
+      <c r="P121" s="77"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="57" t="s">
+      <c r="B122" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="58"/>
-      <c r="D122" s="59"/>
-      <c r="E122" s="57" t="s">
+      <c r="C122" s="56"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F122" s="58"/>
-      <c r="G122" s="58"/>
-      <c r="H122" s="57" t="s">
+      <c r="F122" s="56"/>
+      <c r="G122" s="56"/>
+      <c r="H122" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="58"/>
-      <c r="J122" s="59"/>
-      <c r="K122" s="58" t="s">
+      <c r="I122" s="56"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="L122" s="58"/>
-      <c r="M122" s="59"/>
+      <c r="L122" s="56"/>
+      <c r="M122" s="57"/>
       <c r="N122" s="3" t="s">
         <v>2</v>
       </c>
@@ -5072,11 +5072,11 @@
       <c r="A123" s="1">
         <v>1</v>
       </c>
-      <c r="B123" s="72" t="s">
+      <c r="B123" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C123" s="73"/>
-      <c r="D123" s="74"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="54"/>
       <c r="E123" s="49"/>
       <c r="F123" s="50"/>
       <c r="G123" s="51"/>
@@ -5095,25 +5095,25 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B124" s="49" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C124" s="50"/>
       <c r="D124" s="51"/>
       <c r="E124" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F124" s="50"/>
       <c r="G124" s="50"/>
-      <c r="H124" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="I124" s="46"/>
-      <c r="J124" s="47"/>
-      <c r="K124" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="L124" s="46"/>
-      <c r="M124" s="47"/>
+      <c r="H124" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="I124" s="59"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="L124" s="59"/>
+      <c r="M124" s="60"/>
       <c r="N124" s="49" t="s">
         <v>16</v>
       </c>
@@ -5125,25 +5125,25 @@
         <v>1.2</v>
       </c>
       <c r="B125" s="49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C125" s="50"/>
       <c r="D125" s="51"/>
       <c r="E125" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F125" s="50"/>
       <c r="G125" s="50"/>
-      <c r="H125" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="I125" s="46"/>
-      <c r="J125" s="47"/>
-      <c r="K125" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="L125" s="46"/>
-      <c r="M125" s="47"/>
+      <c r="H125" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="I125" s="59"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="L125" s="59"/>
+      <c r="M125" s="60"/>
       <c r="N125" s="49" t="s">
         <v>16</v>
       </c>
@@ -5155,25 +5155,25 @@
         <v>1.3</v>
       </c>
       <c r="B126" s="49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C126" s="50"/>
       <c r="D126" s="51"/>
       <c r="E126" s="49" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F126" s="50"/>
       <c r="G126" s="51"/>
-      <c r="H126" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="I126" s="46"/>
-      <c r="J126" s="47"/>
-      <c r="K126" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="L126" s="46"/>
-      <c r="M126" s="47"/>
+      <c r="H126" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="I126" s="59"/>
+      <c r="J126" s="60"/>
+      <c r="K126" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="L126" s="59"/>
+      <c r="M126" s="60"/>
       <c r="N126" s="49" t="s">
         <v>16</v>
       </c>
@@ -5185,25 +5185,25 @@
         <v>1.4</v>
       </c>
       <c r="B127" s="49" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C127" s="50"/>
       <c r="D127" s="51"/>
       <c r="E127" s="49" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F127" s="50"/>
       <c r="G127" s="50"/>
-      <c r="H127" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="I127" s="46"/>
-      <c r="J127" s="47"/>
-      <c r="K127" s="46" t="s">
+      <c r="H127" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="I127" s="59"/>
+      <c r="J127" s="60"/>
+      <c r="K127" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L127" s="46"/>
-      <c r="M127" s="47"/>
+      <c r="L127" s="59"/>
+      <c r="M127" s="60"/>
       <c r="N127" s="49" t="s">
         <v>16</v>
       </c>
@@ -5215,25 +5215,25 @@
         <v>1.5</v>
       </c>
       <c r="B128" s="49" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C128" s="50"/>
       <c r="D128" s="51"/>
       <c r="E128" s="49" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F128" s="50"/>
       <c r="G128" s="51"/>
-      <c r="H128" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="I128" s="46"/>
-      <c r="J128" s="47"/>
-      <c r="K128" s="46" t="s">
-        <v>167</v>
-      </c>
-      <c r="L128" s="46"/>
-      <c r="M128" s="47"/>
+      <c r="H128" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="I128" s="59"/>
+      <c r="J128" s="60"/>
+      <c r="K128" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L128" s="59"/>
+      <c r="M128" s="60"/>
       <c r="N128" s="49" t="s">
         <v>16</v>
       </c>
@@ -5245,25 +5245,25 @@
         <v>1.6</v>
       </c>
       <c r="B129" s="49" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C129" s="50"/>
       <c r="D129" s="51"/>
       <c r="E129" s="49" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F129" s="50"/>
       <c r="G129" s="51"/>
-      <c r="H129" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="I129" s="46"/>
-      <c r="J129" s="47"/>
-      <c r="K129" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="L129" s="46"/>
-      <c r="M129" s="47"/>
+      <c r="H129" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="I129" s="59"/>
+      <c r="J129" s="60"/>
+      <c r="K129" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="L129" s="59"/>
+      <c r="M129" s="60"/>
       <c r="N129" s="49" t="s">
         <v>16</v>
       </c>
@@ -5274,212 +5274,212 @@
       <c r="A130" s="2">
         <v>1.7</v>
       </c>
-      <c r="B130" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C130" s="65"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="F130" s="55"/>
-      <c r="G130" s="56"/>
-      <c r="H130" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="I130" s="65"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="L130" s="65"/>
-      <c r="M130" s="66"/>
-      <c r="N130" s="54" t="s">
+      <c r="B130" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C130" s="71"/>
+      <c r="D130" s="72"/>
+      <c r="E130" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="F130" s="62"/>
+      <c r="G130" s="63"/>
+      <c r="H130" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="I130" s="71"/>
+      <c r="J130" s="72"/>
+      <c r="K130" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="L130" s="71"/>
+      <c r="M130" s="72"/>
+      <c r="N130" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="O130" s="55"/>
-      <c r="P130" s="56"/>
+      <c r="O130" s="62"/>
+      <c r="P130" s="63"/>
     </row>
     <row r="132" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="79" t="s">
+      <c r="A132" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B132" s="80"/>
-      <c r="C132" s="80"/>
-      <c r="D132" s="80"/>
-      <c r="E132" s="80"/>
-      <c r="F132" s="80"/>
-      <c r="G132" s="80"/>
-      <c r="H132" s="80"/>
-      <c r="I132" s="80"/>
-      <c r="J132" s="80"/>
-      <c r="K132" s="80"/>
-      <c r="L132" s="80"/>
-      <c r="M132" s="80"/>
-      <c r="N132" s="80"/>
-      <c r="O132" s="80"/>
-      <c r="P132" s="81"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="65"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="65"/>
+      <c r="J132" s="65"/>
+      <c r="K132" s="65"/>
+      <c r="L132" s="65"/>
+      <c r="M132" s="65"/>
+      <c r="N132" s="65"/>
+      <c r="O132" s="65"/>
+      <c r="P132" s="66"/>
     </row>
     <row r="133" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="82"/>
-      <c r="B133" s="83"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="83"/>
-      <c r="H133" s="83"/>
-      <c r="I133" s="83"/>
-      <c r="J133" s="83"/>
-      <c r="K133" s="83"/>
-      <c r="L133" s="83"/>
-      <c r="M133" s="83"/>
-      <c r="N133" s="83"/>
-      <c r="O133" s="83"/>
-      <c r="P133" s="84"/>
+      <c r="A133" s="67"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="68"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="68"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="68"/>
+      <c r="I133" s="68"/>
+      <c r="J133" s="68"/>
+      <c r="K133" s="68"/>
+      <c r="L133" s="68"/>
+      <c r="M133" s="68"/>
+      <c r="N133" s="68"/>
+      <c r="O133" s="68"/>
+      <c r="P133" s="69"/>
     </row>
     <row r="134" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="B134" s="60"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
-      <c r="E134" s="60"/>
-      <c r="F134" s="60"/>
-      <c r="G134" s="60"/>
-      <c r="H134" s="60"/>
-      <c r="I134" s="61" t="s">
+      <c r="A134" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="73"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="73"/>
+      <c r="F134" s="73"/>
+      <c r="G134" s="73"/>
+      <c r="H134" s="73"/>
+      <c r="I134" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="J134" s="61"/>
-      <c r="K134" s="61"/>
-      <c r="L134" s="61"/>
-      <c r="M134" s="61"/>
-      <c r="N134" s="61"/>
-      <c r="O134" s="61"/>
-      <c r="P134" s="63"/>
+      <c r="J134" s="74"/>
+      <c r="K134" s="74"/>
+      <c r="L134" s="74"/>
+      <c r="M134" s="74"/>
+      <c r="N134" s="74"/>
+      <c r="O134" s="74"/>
+      <c r="P134" s="75"/>
     </row>
     <row r="135" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="61"/>
-      <c r="B135" s="61"/>
-      <c r="C135" s="61"/>
-      <c r="D135" s="61"/>
-      <c r="E135" s="61"/>
-      <c r="F135" s="61"/>
-      <c r="G135" s="61"/>
-      <c r="H135" s="61"/>
-      <c r="I135" s="61"/>
-      <c r="J135" s="61"/>
-      <c r="K135" s="61"/>
-      <c r="L135" s="61"/>
-      <c r="M135" s="61"/>
-      <c r="N135" s="61"/>
-      <c r="O135" s="61"/>
-      <c r="P135" s="63"/>
+      <c r="A135" s="74"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="74"/>
+      <c r="H135" s="74"/>
+      <c r="I135" s="74"/>
+      <c r="J135" s="74"/>
+      <c r="K135" s="74"/>
+      <c r="L135" s="74"/>
+      <c r="M135" s="74"/>
+      <c r="N135" s="74"/>
+      <c r="O135" s="74"/>
+      <c r="P135" s="75"/>
     </row>
     <row r="136" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="61" t="s">
+      <c r="A136" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B136" s="61"/>
-      <c r="C136" s="61"/>
-      <c r="D136" s="61"/>
-      <c r="E136" s="61"/>
-      <c r="F136" s="61"/>
-      <c r="G136" s="61"/>
-      <c r="H136" s="61"/>
-      <c r="I136" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="J136" s="61"/>
-      <c r="K136" s="61"/>
-      <c r="L136" s="61"/>
-      <c r="M136" s="61"/>
-      <c r="N136" s="61"/>
-      <c r="O136" s="61"/>
-      <c r="P136" s="63"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
+      <c r="G136" s="74"/>
+      <c r="H136" s="74"/>
+      <c r="I136" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="J136" s="74"/>
+      <c r="K136" s="74"/>
+      <c r="L136" s="74"/>
+      <c r="M136" s="74"/>
+      <c r="N136" s="74"/>
+      <c r="O136" s="74"/>
+      <c r="P136" s="75"/>
     </row>
     <row r="137" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="61"/>
-      <c r="B137" s="61"/>
-      <c r="C137" s="61"/>
-      <c r="D137" s="61"/>
-      <c r="E137" s="61"/>
-      <c r="F137" s="61"/>
-      <c r="G137" s="61"/>
-      <c r="H137" s="61"/>
-      <c r="I137" s="61"/>
-      <c r="J137" s="61"/>
-      <c r="K137" s="61"/>
-      <c r="L137" s="61"/>
-      <c r="M137" s="61"/>
-      <c r="N137" s="61"/>
-      <c r="O137" s="61"/>
-      <c r="P137" s="63"/>
+      <c r="A137" s="74"/>
+      <c r="B137" s="74"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="74"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="74"/>
+      <c r="G137" s="74"/>
+      <c r="H137" s="74"/>
+      <c r="I137" s="74"/>
+      <c r="J137" s="74"/>
+      <c r="K137" s="74"/>
+      <c r="L137" s="74"/>
+      <c r="M137" s="74"/>
+      <c r="N137" s="74"/>
+      <c r="O137" s="74"/>
+      <c r="P137" s="75"/>
     </row>
     <row r="138" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="B138" s="61"/>
-      <c r="C138" s="61"/>
-      <c r="D138" s="61"/>
-      <c r="E138" s="61"/>
-      <c r="F138" s="61"/>
-      <c r="G138" s="61"/>
-      <c r="H138" s="61"/>
-      <c r="I138" s="61"/>
-      <c r="J138" s="61"/>
-      <c r="K138" s="61"/>
-      <c r="L138" s="61"/>
-      <c r="M138" s="61"/>
-      <c r="N138" s="61"/>
-      <c r="O138" s="61"/>
-      <c r="P138" s="63"/>
+      <c r="A138" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B138" s="74"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="74"/>
+      <c r="G138" s="74"/>
+      <c r="H138" s="74"/>
+      <c r="I138" s="74"/>
+      <c r="J138" s="74"/>
+      <c r="K138" s="74"/>
+      <c r="L138" s="74"/>
+      <c r="M138" s="74"/>
+      <c r="N138" s="74"/>
+      <c r="O138" s="74"/>
+      <c r="P138" s="75"/>
     </row>
     <row r="139" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
-      <c r="B139" s="67"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="67"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="67"/>
-      <c r="H139" s="67"/>
-      <c r="I139" s="67"/>
-      <c r="J139" s="67"/>
-      <c r="K139" s="67"/>
-      <c r="L139" s="67"/>
-      <c r="M139" s="67"/>
-      <c r="N139" s="67"/>
-      <c r="O139" s="67"/>
-      <c r="P139" s="68"/>
+      <c r="A139" s="76"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="76"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="76"/>
+      <c r="G139" s="76"/>
+      <c r="H139" s="76"/>
+      <c r="I139" s="76"/>
+      <c r="J139" s="76"/>
+      <c r="K139" s="76"/>
+      <c r="L139" s="76"/>
+      <c r="M139" s="76"/>
+      <c r="N139" s="76"/>
+      <c r="O139" s="76"/>
+      <c r="P139" s="77"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="57" t="s">
+      <c r="B140" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C140" s="58"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="57" t="s">
+      <c r="C140" s="56"/>
+      <c r="D140" s="57"/>
+      <c r="E140" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F140" s="58"/>
-      <c r="G140" s="58"/>
-      <c r="H140" s="57" t="s">
+      <c r="F140" s="56"/>
+      <c r="G140" s="56"/>
+      <c r="H140" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I140" s="58"/>
-      <c r="J140" s="59"/>
-      <c r="K140" s="58" t="s">
+      <c r="I140" s="56"/>
+      <c r="J140" s="57"/>
+      <c r="K140" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="L140" s="58"/>
-      <c r="M140" s="59"/>
+      <c r="L140" s="56"/>
+      <c r="M140" s="57"/>
       <c r="N140" s="3" t="s">
         <v>2</v>
       </c>
@@ -5491,25 +5491,25 @@
         <v>2</v>
       </c>
       <c r="B141" s="49" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C141" s="50"/>
       <c r="D141" s="51"/>
-      <c r="E141" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="F141" s="46"/>
-      <c r="G141" s="47"/>
+      <c r="E141" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="F141" s="59"/>
+      <c r="G141" s="60"/>
       <c r="H141" s="49" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="I141" s="50"/>
       <c r="J141" s="51"/>
-      <c r="K141" s="48" t="s">
+      <c r="K141" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L141" s="46"/>
-      <c r="M141" s="47"/>
+      <c r="L141" s="59"/>
+      <c r="M141" s="60"/>
       <c r="N141" s="49"/>
       <c r="O141" s="50"/>
       <c r="P141" s="51"/>
@@ -5525,16 +5525,16 @@
       <c r="H142" s="49"/>
       <c r="I142" s="50"/>
       <c r="J142" s="51"/>
-      <c r="K142" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="L142" s="46"/>
-      <c r="M142" s="47"/>
-      <c r="N142" s="48" t="s">
+      <c r="K142" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="L142" s="59"/>
+      <c r="M142" s="60"/>
+      <c r="N142" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O142" s="46"/>
-      <c r="P142" s="47"/>
+      <c r="O142" s="59"/>
+      <c r="P142" s="60"/>
     </row>
     <row r="143" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
@@ -5547,11 +5547,11 @@
       <c r="H143" s="49"/>
       <c r="I143" s="50"/>
       <c r="J143" s="51"/>
-      <c r="K143" s="46" t="s">
+      <c r="K143" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L143" s="46"/>
-      <c r="M143" s="47"/>
+      <c r="L143" s="59"/>
+      <c r="M143" s="60"/>
       <c r="N143" s="49"/>
       <c r="O143" s="50"/>
       <c r="P143" s="51"/>
@@ -5561,42 +5561,42 @@
         <v>3</v>
       </c>
       <c r="B144" s="49" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C144" s="50"/>
       <c r="D144" s="51"/>
       <c r="E144" s="49" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F144" s="50"/>
       <c r="G144" s="51"/>
       <c r="H144" s="49" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I144" s="50"/>
       <c r="J144" s="51"/>
       <c r="K144" s="50" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="L144" s="50"/>
       <c r="M144" s="51"/>
-      <c r="N144" s="48" t="s">
+      <c r="N144" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="O144" s="46"/>
-      <c r="P144" s="47"/>
+      <c r="O144" s="59"/>
+      <c r="P144" s="60"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>3.1</v>
       </c>
       <c r="B145" s="49" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C145" s="50"/>
       <c r="D145" s="51"/>
       <c r="E145" s="49" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F145" s="50"/>
       <c r="G145" s="51"/>
@@ -5614,15 +5614,15 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B146" s="49" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C146" s="50"/>
       <c r="D146" s="51"/>
       <c r="E146" s="49" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F146" s="50"/>
       <c r="G146" s="51"/>
@@ -5632,27 +5632,27 @@
       <c r="I146" s="50"/>
       <c r="J146" s="51"/>
       <c r="K146" s="50" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="L146" s="50"/>
       <c r="M146" s="51"/>
       <c r="N146" s="49" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="O146" s="50"/>
       <c r="P146" s="51"/>
     </row>
     <row r="147" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B147" s="49" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C147" s="50"/>
       <c r="D147" s="51"/>
       <c r="E147" s="49" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F147" s="50"/>
       <c r="G147" s="51"/>
@@ -5662,12 +5662,12 @@
       <c r="I147" s="50"/>
       <c r="J147" s="51"/>
       <c r="K147" s="50" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="L147" s="50"/>
       <c r="M147" s="51"/>
       <c r="N147" s="49" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="O147" s="50"/>
       <c r="P147" s="51"/>
@@ -5677,7 +5677,7 @@
         <v>3.2</v>
       </c>
       <c r="B148" s="49" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C148" s="50"/>
       <c r="D148" s="51"/>
@@ -5692,33 +5692,33 @@
       <c r="K148" s="50"/>
       <c r="L148" s="50"/>
       <c r="M148" s="51"/>
-      <c r="N148" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="O148" s="46"/>
-      <c r="P148" s="47"/>
+      <c r="N148" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="O148" s="59"/>
+      <c r="P148" s="60"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>4</v>
       </c>
       <c r="B149" s="49" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C149" s="50"/>
       <c r="D149" s="51"/>
       <c r="E149" s="49" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F149" s="50"/>
       <c r="G149" s="51"/>
       <c r="H149" s="49" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I149" s="50"/>
       <c r="J149" s="51"/>
       <c r="K149" s="50" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="L149" s="50"/>
       <c r="M149" s="51"/>
@@ -5733,12 +5733,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B150" s="49" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C150" s="50"/>
       <c r="D150" s="51"/>
       <c r="E150" s="49" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F150" s="50"/>
       <c r="G150" s="51"/>
@@ -5748,12 +5748,12 @@
       <c r="I150" s="50"/>
       <c r="J150" s="51"/>
       <c r="K150" s="50" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="L150" s="50"/>
       <c r="M150" s="51"/>
       <c r="N150" s="49" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="O150" s="50"/>
       <c r="P150" s="51"/>
@@ -5762,172 +5762,172 @@
       <c r="A151" s="2">
         <v>4.2</v>
       </c>
-      <c r="B151" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C151" s="55"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="F151" s="55"/>
-      <c r="G151" s="56"/>
-      <c r="H151" s="54"/>
-      <c r="I151" s="55"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="L151" s="55"/>
-      <c r="M151" s="56"/>
-      <c r="N151" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="O151" s="55"/>
-      <c r="P151" s="56"/>
+      <c r="B151" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" s="62"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F151" s="62"/>
+      <c r="G151" s="63"/>
+      <c r="H151" s="61"/>
+      <c r="I151" s="62"/>
+      <c r="J151" s="63"/>
+      <c r="K151" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="L151" s="62"/>
+      <c r="M151" s="63"/>
+      <c r="N151" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="O151" s="62"/>
+      <c r="P151" s="63"/>
     </row>
     <row r="153" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B153" s="60"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60"/>
-      <c r="E153" s="60"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="60"/>
-      <c r="H153" s="60"/>
-      <c r="I153" s="60" t="s">
+      <c r="A153" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B153" s="73"/>
+      <c r="C153" s="73"/>
+      <c r="D153" s="73"/>
+      <c r="E153" s="73"/>
+      <c r="F153" s="73"/>
+      <c r="G153" s="73"/>
+      <c r="H153" s="73"/>
+      <c r="I153" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J153" s="60"/>
-      <c r="K153" s="60"/>
-      <c r="L153" s="60"/>
-      <c r="M153" s="60"/>
-      <c r="N153" s="60"/>
-      <c r="O153" s="60"/>
-      <c r="P153" s="62"/>
+      <c r="J153" s="73"/>
+      <c r="K153" s="73"/>
+      <c r="L153" s="73"/>
+      <c r="M153" s="73"/>
+      <c r="N153" s="73"/>
+      <c r="O153" s="73"/>
+      <c r="P153" s="81"/>
     </row>
     <row r="154" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="61"/>
-      <c r="B154" s="61"/>
-      <c r="C154" s="61"/>
-      <c r="D154" s="61"/>
-      <c r="E154" s="61"/>
-      <c r="F154" s="61"/>
-      <c r="G154" s="61"/>
-      <c r="H154" s="61"/>
-      <c r="I154" s="61"/>
-      <c r="J154" s="61"/>
-      <c r="K154" s="61"/>
-      <c r="L154" s="61"/>
-      <c r="M154" s="61"/>
-      <c r="N154" s="61"/>
-      <c r="O154" s="61"/>
-      <c r="P154" s="63"/>
+      <c r="A154" s="74"/>
+      <c r="B154" s="74"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="74"/>
+      <c r="G154" s="74"/>
+      <c r="H154" s="74"/>
+      <c r="I154" s="74"/>
+      <c r="J154" s="74"/>
+      <c r="K154" s="74"/>
+      <c r="L154" s="74"/>
+      <c r="M154" s="74"/>
+      <c r="N154" s="74"/>
+      <c r="O154" s="74"/>
+      <c r="P154" s="75"/>
     </row>
     <row r="155" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="61" t="s">
+      <c r="A155" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B155" s="61"/>
-      <c r="C155" s="61"/>
-      <c r="D155" s="61"/>
-      <c r="E155" s="61"/>
-      <c r="F155" s="61"/>
-      <c r="G155" s="61"/>
-      <c r="H155" s="61"/>
-      <c r="I155" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="J155" s="61"/>
-      <c r="K155" s="61"/>
-      <c r="L155" s="61"/>
-      <c r="M155" s="61"/>
-      <c r="N155" s="61"/>
-      <c r="O155" s="61"/>
-      <c r="P155" s="63"/>
+      <c r="B155" s="74"/>
+      <c r="C155" s="74"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="74"/>
+      <c r="G155" s="74"/>
+      <c r="H155" s="74"/>
+      <c r="I155" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="J155" s="74"/>
+      <c r="K155" s="74"/>
+      <c r="L155" s="74"/>
+      <c r="M155" s="74"/>
+      <c r="N155" s="74"/>
+      <c r="O155" s="74"/>
+      <c r="P155" s="75"/>
     </row>
     <row r="156" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="61"/>
-      <c r="B156" s="61"/>
-      <c r="C156" s="61"/>
-      <c r="D156" s="61"/>
-      <c r="E156" s="61"/>
-      <c r="F156" s="61"/>
-      <c r="G156" s="61"/>
-      <c r="H156" s="61"/>
-      <c r="I156" s="61"/>
-      <c r="J156" s="61"/>
-      <c r="K156" s="61"/>
-      <c r="L156" s="61"/>
-      <c r="M156" s="61"/>
-      <c r="N156" s="61"/>
-      <c r="O156" s="61"/>
-      <c r="P156" s="63"/>
+      <c r="A156" s="74"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="74"/>
+      <c r="G156" s="74"/>
+      <c r="H156" s="74"/>
+      <c r="I156" s="74"/>
+      <c r="J156" s="74"/>
+      <c r="K156" s="74"/>
+      <c r="L156" s="74"/>
+      <c r="M156" s="74"/>
+      <c r="N156" s="74"/>
+      <c r="O156" s="74"/>
+      <c r="P156" s="75"/>
     </row>
     <row r="157" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="B157" s="61"/>
-      <c r="C157" s="61"/>
-      <c r="D157" s="61"/>
-      <c r="E157" s="61"/>
-      <c r="F157" s="61"/>
-      <c r="G157" s="61"/>
-      <c r="H157" s="61"/>
-      <c r="I157" s="61"/>
-      <c r="J157" s="61"/>
-      <c r="K157" s="61"/>
-      <c r="L157" s="61"/>
-      <c r="M157" s="61"/>
-      <c r="N157" s="61"/>
-      <c r="O157" s="61"/>
-      <c r="P157" s="63"/>
+      <c r="A157" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" s="74"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="74"/>
+      <c r="G157" s="74"/>
+      <c r="H157" s="74"/>
+      <c r="I157" s="74"/>
+      <c r="J157" s="74"/>
+      <c r="K157" s="74"/>
+      <c r="L157" s="74"/>
+      <c r="M157" s="74"/>
+      <c r="N157" s="74"/>
+      <c r="O157" s="74"/>
+      <c r="P157" s="75"/>
     </row>
     <row r="158" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="67"/>
-      <c r="B158" s="67"/>
-      <c r="C158" s="67"/>
-      <c r="D158" s="67"/>
-      <c r="E158" s="67"/>
-      <c r="F158" s="67"/>
-      <c r="G158" s="67"/>
-      <c r="H158" s="67"/>
-      <c r="I158" s="67"/>
-      <c r="J158" s="67"/>
-      <c r="K158" s="67"/>
-      <c r="L158" s="67"/>
-      <c r="M158" s="67"/>
-      <c r="N158" s="67"/>
-      <c r="O158" s="67"/>
-      <c r="P158" s="68"/>
+      <c r="A158" s="76"/>
+      <c r="B158" s="76"/>
+      <c r="C158" s="76"/>
+      <c r="D158" s="76"/>
+      <c r="E158" s="76"/>
+      <c r="F158" s="76"/>
+      <c r="G158" s="76"/>
+      <c r="H158" s="76"/>
+      <c r="I158" s="76"/>
+      <c r="J158" s="76"/>
+      <c r="K158" s="76"/>
+      <c r="L158" s="76"/>
+      <c r="M158" s="76"/>
+      <c r="N158" s="76"/>
+      <c r="O158" s="76"/>
+      <c r="P158" s="77"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="57" t="s">
+      <c r="B159" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="58"/>
-      <c r="D159" s="59"/>
-      <c r="E159" s="57" t="s">
+      <c r="C159" s="56"/>
+      <c r="D159" s="57"/>
+      <c r="E159" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F159" s="58"/>
-      <c r="G159" s="58"/>
-      <c r="H159" s="57" t="s">
+      <c r="F159" s="56"/>
+      <c r="G159" s="56"/>
+      <c r="H159" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I159" s="58"/>
-      <c r="J159" s="59"/>
-      <c r="K159" s="58" t="s">
+      <c r="I159" s="56"/>
+      <c r="J159" s="57"/>
+      <c r="K159" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="L159" s="58"/>
-      <c r="M159" s="59"/>
+      <c r="L159" s="56"/>
+      <c r="M159" s="57"/>
       <c r="N159" s="3" t="s">
         <v>2</v>
       </c>
@@ -5938,28 +5938,28 @@
       <c r="A160" s="1">
         <v>1</v>
       </c>
-      <c r="B160" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="C160" s="73"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="F160" s="46"/>
-      <c r="G160" s="47"/>
+      <c r="B160" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" s="53"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="58" t="s">
+        <v>286</v>
+      </c>
+      <c r="F160" s="59"/>
+      <c r="G160" s="60"/>
       <c r="H160" s="49" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="I160" s="50"/>
       <c r="J160" s="51"/>
-      <c r="K160" s="48" t="s">
+      <c r="K160" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L160" s="46"/>
-      <c r="M160" s="47"/>
+      <c r="L160" s="59"/>
+      <c r="M160" s="60"/>
       <c r="N160" s="49" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="O160" s="50"/>
       <c r="P160" s="51"/>
@@ -5975,16 +5975,16 @@
       <c r="H161" s="49"/>
       <c r="I161" s="50"/>
       <c r="J161" s="51"/>
-      <c r="K161" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="L161" s="46"/>
-      <c r="M161" s="47"/>
-      <c r="N161" s="48" t="s">
+      <c r="K161" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="L161" s="59"/>
+      <c r="M161" s="60"/>
+      <c r="N161" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O161" s="46"/>
-      <c r="P161" s="47"/>
+      <c r="O161" s="59"/>
+      <c r="P161" s="60"/>
     </row>
     <row r="162" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
@@ -5997,11 +5997,11 @@
       <c r="H162" s="49"/>
       <c r="I162" s="50"/>
       <c r="J162" s="51"/>
-      <c r="K162" s="46" t="s">
+      <c r="K162" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="L162" s="46"/>
-      <c r="M162" s="47"/>
+      <c r="L162" s="59"/>
+      <c r="M162" s="60"/>
       <c r="N162" s="49"/>
       <c r="O162" s="50"/>
       <c r="P162" s="51"/>
@@ -6011,20 +6011,20 @@
         <v>2</v>
       </c>
       <c r="B163" s="49" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C163" s="50"/>
       <c r="D163" s="51"/>
       <c r="E163" s="49" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F163" s="50"/>
       <c r="G163" s="51"/>
-      <c r="H163" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="I163" s="46"/>
-      <c r="J163" s="47"/>
+      <c r="H163" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="I163" s="59"/>
+      <c r="J163" s="60"/>
       <c r="K163" s="50"/>
       <c r="L163" s="50"/>
       <c r="M163" s="51"/>
@@ -6037,12 +6037,12 @@
         <v>2.1</v>
       </c>
       <c r="B164" s="49" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C164" s="50"/>
       <c r="D164" s="51"/>
       <c r="E164" s="49" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F164" s="50"/>
       <c r="G164" s="51"/>
@@ -6051,11 +6051,11 @@
       </c>
       <c r="I164" s="50"/>
       <c r="J164" s="51"/>
-      <c r="K164" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="L164" s="46"/>
-      <c r="M164" s="47"/>
+      <c r="K164" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="L164" s="59"/>
+      <c r="M164" s="60"/>
       <c r="N164" s="49" t="s">
         <v>16</v>
       </c>
@@ -6067,12 +6067,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B165" s="49" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C165" s="50"/>
       <c r="D165" s="51"/>
       <c r="E165" s="49" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F165" s="50"/>
       <c r="G165" s="51"/>
@@ -6081,11 +6081,11 @@
       </c>
       <c r="I165" s="50"/>
       <c r="J165" s="51"/>
-      <c r="K165" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="L165" s="46"/>
-      <c r="M165" s="47"/>
+      <c r="K165" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="L165" s="59"/>
+      <c r="M165" s="60"/>
       <c r="N165" s="49" t="s">
         <v>16</v>
       </c>
@@ -6097,12 +6097,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B166" s="49" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C166" s="50"/>
       <c r="D166" s="51"/>
       <c r="E166" s="49" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="F166" s="50"/>
       <c r="G166" s="51"/>
@@ -6127,17 +6127,17 @@
         <v>3</v>
       </c>
       <c r="B167" s="49" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C167" s="50"/>
       <c r="D167" s="51"/>
       <c r="E167" s="49" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F167" s="50"/>
       <c r="G167" s="51"/>
       <c r="H167" s="49" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I167" s="50"/>
       <c r="J167" s="51"/>
@@ -6153,17 +6153,17 @@
         <v>3.1</v>
       </c>
       <c r="B168" s="49" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C168" s="50"/>
       <c r="D168" s="51"/>
-      <c r="E168" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="F168" s="46"/>
-      <c r="G168" s="47"/>
+      <c r="E168" s="58" t="s">
+        <v>199</v>
+      </c>
+      <c r="F168" s="59"/>
+      <c r="G168" s="60"/>
       <c r="H168" s="49" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="I168" s="50"/>
       <c r="J168" s="51"/>
@@ -6176,25 +6176,25 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B169" s="49" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C169" s="50"/>
       <c r="D169" s="51"/>
-      <c r="E169" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="F169" s="46"/>
-      <c r="G169" s="47"/>
+      <c r="E169" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="F169" s="59"/>
+      <c r="G169" s="60"/>
       <c r="H169" s="49" t="s">
         <v>15</v>
       </c>
       <c r="I169" s="50"/>
       <c r="J169" s="51"/>
       <c r="K169" s="50" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L169" s="50"/>
       <c r="M169" s="51"/>
@@ -6206,15 +6206,15 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B170" s="49" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C170" s="50"/>
       <c r="D170" s="51"/>
       <c r="E170" s="49" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F170" s="50"/>
       <c r="G170" s="51"/>
@@ -6224,7 +6224,7 @@
       <c r="I170" s="50"/>
       <c r="J170" s="51"/>
       <c r="K170" s="50" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L170" s="50"/>
       <c r="M170" s="51"/>
@@ -6236,15 +6236,15 @@
     </row>
     <row r="171" spans="1:16" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B171" s="49" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C171" s="50"/>
       <c r="D171" s="51"/>
       <c r="E171" s="49" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F171" s="50"/>
       <c r="G171" s="51"/>
@@ -6253,28 +6253,28 @@
       </c>
       <c r="I171" s="50"/>
       <c r="J171" s="51"/>
-      <c r="K171" s="46" t="s">
-        <v>224</v>
-      </c>
-      <c r="L171" s="46"/>
-      <c r="M171" s="47"/>
-      <c r="N171" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="O171" s="46"/>
-      <c r="P171" s="47"/>
+      <c r="K171" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="L171" s="59"/>
+      <c r="M171" s="60"/>
+      <c r="N171" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="O171" s="59"/>
+      <c r="P171" s="60"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B172" s="49" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C172" s="50"/>
       <c r="D172" s="51"/>
       <c r="E172" s="49" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F172" s="50"/>
       <c r="G172" s="51"/>
@@ -6284,7 +6284,7 @@
       <c r="I172" s="50"/>
       <c r="J172" s="51"/>
       <c r="K172" s="50" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L172" s="50"/>
       <c r="M172" s="51"/>
@@ -6299,17 +6299,17 @@
         <v>3.2</v>
       </c>
       <c r="B173" s="49" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C173" s="50"/>
       <c r="D173" s="51"/>
-      <c r="E173" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="F173" s="46"/>
-      <c r="G173" s="47"/>
+      <c r="E173" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="F173" s="59"/>
+      <c r="G173" s="60"/>
       <c r="H173" s="49" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I173" s="50"/>
       <c r="J173" s="51"/>
@@ -6322,25 +6322,25 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B174" s="49" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C174" s="50"/>
       <c r="D174" s="51"/>
-      <c r="E174" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="F174" s="46"/>
-      <c r="G174" s="47"/>
+      <c r="E174" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="F174" s="59"/>
+      <c r="G174" s="60"/>
       <c r="H174" s="49" t="s">
         <v>15</v>
       </c>
       <c r="I174" s="50"/>
       <c r="J174" s="51"/>
       <c r="K174" s="50" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L174" s="50"/>
       <c r="M174" s="51"/>
@@ -6352,15 +6352,15 @@
     </row>
     <row r="175" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B175" s="49" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C175" s="50"/>
       <c r="D175" s="51"/>
       <c r="E175" s="49" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F175" s="50"/>
       <c r="G175" s="51"/>
@@ -6369,28 +6369,28 @@
       </c>
       <c r="I175" s="50"/>
       <c r="J175" s="51"/>
-      <c r="K175" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="L175" s="46"/>
-      <c r="M175" s="47"/>
-      <c r="N175" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="O175" s="46"/>
-      <c r="P175" s="47"/>
+      <c r="K175" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="L175" s="59"/>
+      <c r="M175" s="60"/>
+      <c r="N175" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="O175" s="59"/>
+      <c r="P175" s="60"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B176" s="49" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C176" s="50"/>
       <c r="D176" s="51"/>
       <c r="E176" s="49" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F176" s="50"/>
       <c r="G176" s="51"/>
@@ -6400,7 +6400,7 @@
       <c r="I176" s="50"/>
       <c r="J176" s="51"/>
       <c r="K176" s="50" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L176" s="50"/>
       <c r="M176" s="51"/>
@@ -6412,15 +6412,15 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B177" s="49" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C177" s="50"/>
       <c r="D177" s="51"/>
       <c r="E177" s="49" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F177" s="50"/>
       <c r="G177" s="51"/>
@@ -6430,7 +6430,7 @@
       <c r="I177" s="50"/>
       <c r="J177" s="51"/>
       <c r="K177" s="50" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L177" s="50"/>
       <c r="M177" s="51"/>
@@ -6445,17 +6445,17 @@
         <v>4</v>
       </c>
       <c r="B178" s="49" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C178" s="50"/>
       <c r="D178" s="51"/>
       <c r="E178" s="49" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F178" s="50"/>
       <c r="G178" s="51"/>
       <c r="H178" s="49" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I178" s="50"/>
       <c r="J178" s="51"/>
@@ -6471,12 +6471,12 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B179" s="49" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C179" s="50"/>
       <c r="D179" s="51"/>
       <c r="E179" s="49" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F179" s="50"/>
       <c r="G179" s="51"/>
@@ -6486,7 +6486,7 @@
       <c r="I179" s="50"/>
       <c r="J179" s="51"/>
       <c r="K179" s="50" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="L179" s="50"/>
       <c r="M179" s="51"/>
@@ -6501,12 +6501,12 @@
         <v>4.2</v>
       </c>
       <c r="B180" s="49" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C180" s="50"/>
       <c r="D180" s="51"/>
       <c r="E180" s="49" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F180" s="50"/>
       <c r="G180" s="51"/>
@@ -6516,7 +6516,7 @@
       <c r="I180" s="50"/>
       <c r="J180" s="51"/>
       <c r="K180" s="50" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="L180" s="50"/>
       <c r="M180" s="51"/>
@@ -6531,17 +6531,17 @@
         <v>5</v>
       </c>
       <c r="B181" s="49" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C181" s="50"/>
       <c r="D181" s="51"/>
       <c r="E181" s="49" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="F181" s="50"/>
       <c r="G181" s="51"/>
       <c r="H181" s="49" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I181" s="50"/>
       <c r="J181" s="51"/>
@@ -6557,12 +6557,12 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B182" s="49" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C182" s="50"/>
       <c r="D182" s="51"/>
       <c r="E182" s="49" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F182" s="50"/>
       <c r="G182" s="51"/>
@@ -6572,27 +6572,27 @@
       <c r="I182" s="50"/>
       <c r="J182" s="51"/>
       <c r="K182" s="50" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="L182" s="50"/>
       <c r="M182" s="51"/>
-      <c r="N182" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="O182" s="46"/>
-      <c r="P182" s="47"/>
+      <c r="N182" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O182" s="59"/>
+      <c r="P182" s="60"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="9">
         <v>5.2</v>
       </c>
       <c r="B183" s="49" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C183" s="50"/>
       <c r="D183" s="51"/>
       <c r="E183" s="49" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F183" s="50"/>
       <c r="G183" s="51"/>
@@ -6602,7 +6602,7 @@
       <c r="I183" s="50"/>
       <c r="J183" s="51"/>
       <c r="K183" s="50" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="L183" s="50"/>
       <c r="M183" s="51"/>
@@ -6617,17 +6617,17 @@
         <v>6</v>
       </c>
       <c r="B184" s="49" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C184" s="50"/>
       <c r="D184" s="51"/>
-      <c r="E184" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="F184" s="46"/>
-      <c r="G184" s="47"/>
+      <c r="E184" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="F184" s="59"/>
+      <c r="G184" s="60"/>
       <c r="H184" s="49" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I184" s="50"/>
       <c r="J184" s="51"/>
@@ -6643,12 +6643,12 @@
         <v>6.1</v>
       </c>
       <c r="B185" s="49" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C185" s="50"/>
       <c r="D185" s="51"/>
       <c r="E185" s="49" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F185" s="50"/>
       <c r="G185" s="51"/>
@@ -6658,7 +6658,7 @@
       <c r="I185" s="50"/>
       <c r="J185" s="51"/>
       <c r="K185" s="50" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="L185" s="50"/>
       <c r="M185" s="51"/>
@@ -6673,12 +6673,12 @@
         <v>6.2</v>
       </c>
       <c r="B186" s="49" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C186" s="50"/>
       <c r="D186" s="51"/>
       <c r="E186" s="49" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F186" s="50"/>
       <c r="G186" s="51"/>
@@ -6688,7 +6688,7 @@
       <c r="I186" s="50"/>
       <c r="J186" s="51"/>
       <c r="K186" s="50" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="L186" s="50"/>
       <c r="M186" s="51"/>
@@ -6703,17 +6703,17 @@
         <v>7</v>
       </c>
       <c r="B187" s="49" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C187" s="50"/>
       <c r="D187" s="51"/>
       <c r="E187" s="49" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F187" s="50"/>
       <c r="G187" s="51"/>
       <c r="H187" s="49" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I187" s="50"/>
       <c r="J187" s="51"/>
@@ -6729,12 +6729,12 @@
         <v>7.1</v>
       </c>
       <c r="B188" s="49" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C188" s="50"/>
       <c r="D188" s="51"/>
       <c r="E188" s="49" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="F188" s="50"/>
       <c r="G188" s="51"/>
@@ -6743,11 +6743,11 @@
       </c>
       <c r="I188" s="50"/>
       <c r="J188" s="51"/>
-      <c r="K188" s="46" t="s">
-        <v>251</v>
-      </c>
-      <c r="L188" s="46"/>
-      <c r="M188" s="47"/>
+      <c r="K188" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="L188" s="59"/>
+      <c r="M188" s="60"/>
       <c r="N188" s="49" t="s">
         <v>16</v>
       </c>
@@ -6755,34 +6755,34 @@
       <c r="P188" s="51"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A189" s="96">
+      <c r="A189" s="46">
         <v>7.2</v>
       </c>
-      <c r="B189" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="C189" s="55"/>
-      <c r="D189" s="56"/>
-      <c r="E189" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="F189" s="55"/>
-      <c r="G189" s="56"/>
-      <c r="H189" s="54" t="s">
+      <c r="B189" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C189" s="62"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="F189" s="62"/>
+      <c r="G189" s="63"/>
+      <c r="H189" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I189" s="55"/>
-      <c r="J189" s="56"/>
-      <c r="K189" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="L189" s="55"/>
-      <c r="M189" s="56"/>
-      <c r="N189" s="54" t="s">
+      <c r="I189" s="62"/>
+      <c r="J189" s="63"/>
+      <c r="K189" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="L189" s="62"/>
+      <c r="M189" s="63"/>
+      <c r="N189" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="O189" s="55"/>
-      <c r="P189" s="56"/>
+      <c r="O189" s="62"/>
+      <c r="P189" s="63"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
@@ -6803,147 +6803,147 @@
       <c r="P190" s="44"/>
     </row>
     <row r="191" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="B191" s="60"/>
-      <c r="C191" s="60"/>
-      <c r="D191" s="60"/>
-      <c r="E191" s="60"/>
-      <c r="F191" s="60"/>
-      <c r="G191" s="60"/>
-      <c r="H191" s="60"/>
-      <c r="I191" s="60" t="s">
+      <c r="A191" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="B191" s="73"/>
+      <c r="C191" s="73"/>
+      <c r="D191" s="73"/>
+      <c r="E191" s="73"/>
+      <c r="F191" s="73"/>
+      <c r="G191" s="73"/>
+      <c r="H191" s="73"/>
+      <c r="I191" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J191" s="60"/>
-      <c r="K191" s="60"/>
-      <c r="L191" s="60"/>
-      <c r="M191" s="60"/>
-      <c r="N191" s="60"/>
-      <c r="O191" s="60"/>
-      <c r="P191" s="62"/>
+      <c r="J191" s="73"/>
+      <c r="K191" s="73"/>
+      <c r="L191" s="73"/>
+      <c r="M191" s="73"/>
+      <c r="N191" s="73"/>
+      <c r="O191" s="73"/>
+      <c r="P191" s="81"/>
     </row>
     <row r="192" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="61"/>
-      <c r="B192" s="61"/>
-      <c r="C192" s="61"/>
-      <c r="D192" s="61"/>
-      <c r="E192" s="61"/>
-      <c r="F192" s="61"/>
-      <c r="G192" s="61"/>
-      <c r="H192" s="61"/>
-      <c r="I192" s="61"/>
-      <c r="J192" s="61"/>
-      <c r="K192" s="61"/>
-      <c r="L192" s="61"/>
-      <c r="M192" s="61"/>
-      <c r="N192" s="61"/>
-      <c r="O192" s="61"/>
-      <c r="P192" s="63"/>
+      <c r="A192" s="74"/>
+      <c r="B192" s="74"/>
+      <c r="C192" s="74"/>
+      <c r="D192" s="74"/>
+      <c r="E192" s="74"/>
+      <c r="F192" s="74"/>
+      <c r="G192" s="74"/>
+      <c r="H192" s="74"/>
+      <c r="I192" s="74"/>
+      <c r="J192" s="74"/>
+      <c r="K192" s="74"/>
+      <c r="L192" s="74"/>
+      <c r="M192" s="74"/>
+      <c r="N192" s="74"/>
+      <c r="O192" s="74"/>
+      <c r="P192" s="75"/>
     </row>
     <row r="193" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="61" t="s">
+      <c r="A193" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B193" s="61"/>
-      <c r="C193" s="61"/>
-      <c r="D193" s="61"/>
-      <c r="E193" s="61"/>
-      <c r="F193" s="61"/>
-      <c r="G193" s="61"/>
-      <c r="H193" s="61"/>
-      <c r="I193" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="J193" s="61"/>
-      <c r="K193" s="61"/>
-      <c r="L193" s="61"/>
-      <c r="M193" s="61"/>
-      <c r="N193" s="61"/>
-      <c r="O193" s="61"/>
-      <c r="P193" s="63"/>
+      <c r="B193" s="74"/>
+      <c r="C193" s="74"/>
+      <c r="D193" s="74"/>
+      <c r="E193" s="74"/>
+      <c r="F193" s="74"/>
+      <c r="G193" s="74"/>
+      <c r="H193" s="74"/>
+      <c r="I193" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="J193" s="74"/>
+      <c r="K193" s="74"/>
+      <c r="L193" s="74"/>
+      <c r="M193" s="74"/>
+      <c r="N193" s="74"/>
+      <c r="O193" s="74"/>
+      <c r="P193" s="75"/>
     </row>
     <row r="194" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="61"/>
-      <c r="B194" s="61"/>
-      <c r="C194" s="61"/>
-      <c r="D194" s="61"/>
-      <c r="E194" s="61"/>
-      <c r="F194" s="61"/>
-      <c r="G194" s="61"/>
-      <c r="H194" s="61"/>
-      <c r="I194" s="61"/>
-      <c r="J194" s="61"/>
-      <c r="K194" s="61"/>
-      <c r="L194" s="61"/>
-      <c r="M194" s="61"/>
-      <c r="N194" s="61"/>
-      <c r="O194" s="61"/>
-      <c r="P194" s="63"/>
+      <c r="A194" s="74"/>
+      <c r="B194" s="74"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="74"/>
+      <c r="E194" s="74"/>
+      <c r="F194" s="74"/>
+      <c r="G194" s="74"/>
+      <c r="H194" s="74"/>
+      <c r="I194" s="74"/>
+      <c r="J194" s="74"/>
+      <c r="K194" s="74"/>
+      <c r="L194" s="74"/>
+      <c r="M194" s="74"/>
+      <c r="N194" s="74"/>
+      <c r="O194" s="74"/>
+      <c r="P194" s="75"/>
     </row>
     <row r="195" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="B195" s="61"/>
-      <c r="C195" s="61"/>
-      <c r="D195" s="61"/>
-      <c r="E195" s="61"/>
-      <c r="F195" s="61"/>
-      <c r="G195" s="61"/>
-      <c r="H195" s="61"/>
-      <c r="I195" s="61"/>
-      <c r="J195" s="61"/>
-      <c r="K195" s="61"/>
-      <c r="L195" s="61"/>
-      <c r="M195" s="61"/>
-      <c r="N195" s="61"/>
-      <c r="O195" s="61"/>
-      <c r="P195" s="63"/>
+      <c r="A195" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="B195" s="74"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="74"/>
+      <c r="E195" s="74"/>
+      <c r="F195" s="74"/>
+      <c r="G195" s="74"/>
+      <c r="H195" s="74"/>
+      <c r="I195" s="74"/>
+      <c r="J195" s="74"/>
+      <c r="K195" s="74"/>
+      <c r="L195" s="74"/>
+      <c r="M195" s="74"/>
+      <c r="N195" s="74"/>
+      <c r="O195" s="74"/>
+      <c r="P195" s="75"/>
     </row>
     <row r="196" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="67"/>
-      <c r="B196" s="67"/>
-      <c r="C196" s="67"/>
-      <c r="D196" s="67"/>
-      <c r="E196" s="67"/>
-      <c r="F196" s="67"/>
-      <c r="G196" s="67"/>
-      <c r="H196" s="67"/>
-      <c r="I196" s="67"/>
-      <c r="J196" s="67"/>
-      <c r="K196" s="67"/>
-      <c r="L196" s="67"/>
-      <c r="M196" s="67"/>
-      <c r="N196" s="67"/>
-      <c r="O196" s="67"/>
-      <c r="P196" s="68"/>
+      <c r="A196" s="76"/>
+      <c r="B196" s="76"/>
+      <c r="C196" s="76"/>
+      <c r="D196" s="76"/>
+      <c r="E196" s="76"/>
+      <c r="F196" s="76"/>
+      <c r="G196" s="76"/>
+      <c r="H196" s="76"/>
+      <c r="I196" s="76"/>
+      <c r="J196" s="76"/>
+      <c r="K196" s="76"/>
+      <c r="L196" s="76"/>
+      <c r="M196" s="76"/>
+      <c r="N196" s="76"/>
+      <c r="O196" s="76"/>
+      <c r="P196" s="77"/>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B197" s="57" t="s">
+      <c r="B197" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C197" s="58"/>
-      <c r="D197" s="59"/>
-      <c r="E197" s="57" t="s">
+      <c r="C197" s="56"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F197" s="58"/>
-      <c r="G197" s="58"/>
-      <c r="H197" s="57" t="s">
+      <c r="F197" s="56"/>
+      <c r="G197" s="56"/>
+      <c r="H197" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="I197" s="58"/>
-      <c r="J197" s="59"/>
-      <c r="K197" s="58" t="s">
+      <c r="I197" s="56"/>
+      <c r="J197" s="57"/>
+      <c r="K197" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="L197" s="58"/>
-      <c r="M197" s="59"/>
+      <c r="L197" s="56"/>
+      <c r="M197" s="57"/>
       <c r="N197" s="3" t="s">
         <v>2</v>
       </c>
@@ -6954,31 +6954,31 @@
       <c r="A198" s="1">
         <v>1</v>
       </c>
-      <c r="B198" s="72" t="s">
-        <v>254</v>
-      </c>
-      <c r="C198" s="73"/>
-      <c r="D198" s="74"/>
-      <c r="E198" s="72" t="s">
-        <v>307</v>
-      </c>
-      <c r="F198" s="73"/>
-      <c r="G198" s="74"/>
-      <c r="H198" s="69" t="s">
-        <v>309</v>
-      </c>
-      <c r="I198" s="70"/>
-      <c r="J198" s="71"/>
-      <c r="K198" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="L198" s="73"/>
-      <c r="M198" s="74"/>
-      <c r="N198" s="69" t="s">
-        <v>308</v>
-      </c>
-      <c r="O198" s="70"/>
-      <c r="P198" s="71"/>
+      <c r="B198" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="C198" s="53"/>
+      <c r="D198" s="54"/>
+      <c r="E198" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="F198" s="53"/>
+      <c r="G198" s="54"/>
+      <c r="H198" s="78" t="s">
+        <v>290</v>
+      </c>
+      <c r="I198" s="79"/>
+      <c r="J198" s="80"/>
+      <c r="K198" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="L198" s="53"/>
+      <c r="M198" s="54"/>
+      <c r="N198" s="78" t="s">
+        <v>289</v>
+      </c>
+      <c r="O198" s="79"/>
+      <c r="P198" s="80"/>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
@@ -7007,25 +7007,25 @@
         <v>2.1</v>
       </c>
       <c r="B200" s="49" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C200" s="50"/>
       <c r="D200" s="50"/>
       <c r="E200" s="49" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F200" s="50"/>
       <c r="G200" s="51"/>
-      <c r="H200" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="I200" s="46"/>
-      <c r="J200" s="47"/>
-      <c r="K200" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="L200" s="46"/>
-      <c r="M200" s="47"/>
+      <c r="H200" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="I200" s="59"/>
+      <c r="J200" s="60"/>
+      <c r="K200" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="L200" s="59"/>
+      <c r="M200" s="60"/>
       <c r="N200" s="49" t="s">
         <v>16</v>
       </c>
@@ -7037,25 +7037,25 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B201" s="49" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C201" s="50"/>
       <c r="D201" s="50"/>
       <c r="E201" s="49" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F201" s="50"/>
       <c r="G201" s="51"/>
-      <c r="H201" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="I201" s="46"/>
-      <c r="J201" s="47"/>
-      <c r="K201" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="L201" s="46"/>
-      <c r="M201" s="47"/>
+      <c r="H201" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="I201" s="59"/>
+      <c r="J201" s="60"/>
+      <c r="K201" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="L201" s="59"/>
+      <c r="M201" s="60"/>
       <c r="N201" s="49" t="s">
         <v>16</v>
       </c>
@@ -7067,25 +7067,25 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B202" s="49" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C202" s="50"/>
       <c r="D202" s="50"/>
       <c r="E202" s="49" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F202" s="50"/>
       <c r="G202" s="51"/>
-      <c r="H202" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="I202" s="46"/>
-      <c r="J202" s="47"/>
-      <c r="K202" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="L202" s="46"/>
-      <c r="M202" s="47"/>
+      <c r="H202" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="I202" s="59"/>
+      <c r="J202" s="60"/>
+      <c r="K202" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="L202" s="59"/>
+      <c r="M202" s="60"/>
       <c r="N202" s="49" t="s">
         <v>16</v>
       </c>
@@ -7097,25 +7097,25 @@
         <v>2.4</v>
       </c>
       <c r="B203" s="49" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C203" s="50"/>
       <c r="D203" s="50"/>
       <c r="E203" s="49" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="F203" s="50"/>
       <c r="G203" s="51"/>
-      <c r="H203" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="I203" s="46"/>
-      <c r="J203" s="47"/>
-      <c r="K203" s="46" t="s">
+      <c r="H203" s="59" t="s">
+        <v>252</v>
+      </c>
+      <c r="I203" s="59"/>
+      <c r="J203" s="60"/>
+      <c r="K203" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="L203" s="46"/>
-      <c r="M203" s="47"/>
+      <c r="L203" s="59"/>
+      <c r="M203" s="60"/>
       <c r="N203" s="49" t="s">
         <v>16</v>
       </c>
@@ -7126,56 +7126,622 @@
       <c r="A204" s="2">
         <v>2.4</v>
       </c>
-      <c r="B204" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="C204" s="55"/>
-      <c r="D204" s="55"/>
-      <c r="E204" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="F204" s="55"/>
-      <c r="G204" s="56"/>
-      <c r="H204" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="I204" s="65"/>
-      <c r="J204" s="66"/>
-      <c r="K204" s="65" t="s">
+      <c r="B204" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C204" s="62"/>
+      <c r="D204" s="62"/>
+      <c r="E204" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="F204" s="62"/>
+      <c r="G204" s="63"/>
+      <c r="H204" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="I204" s="71"/>
+      <c r="J204" s="72"/>
+      <c r="K204" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="L204" s="65"/>
-      <c r="M204" s="66"/>
-      <c r="N204" s="54" t="s">
+      <c r="L204" s="71"/>
+      <c r="M204" s="72"/>
+      <c r="N204" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="O204" s="55"/>
-      <c r="P204" s="56"/>
+      <c r="O204" s="62"/>
+      <c r="P204" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="636">
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="A55:P56"/>
+    <mergeCell ref="K98:M98"/>
+    <mergeCell ref="N98:P98"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="N100:P100"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:M107"/>
+    <mergeCell ref="N107:P107"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N102:P102"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="N103:P103"/>
+    <mergeCell ref="N104:P104"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="N76:P76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:P77"/>
+    <mergeCell ref="N93:P93"/>
+    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="N101:P101"/>
+    <mergeCell ref="N106:P106"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="N105:P105"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="K108:M108"/>
+    <mergeCell ref="N108:P108"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="K109:M109"/>
+    <mergeCell ref="N109:P109"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="N99:P99"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:P94"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="K122:M122"/>
+    <mergeCell ref="A116:H117"/>
+    <mergeCell ref="I116:P117"/>
+    <mergeCell ref="A118:H119"/>
+    <mergeCell ref="I118:P119"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="N96:P96"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="K97:M97"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="K110:M110"/>
+    <mergeCell ref="N110:P110"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="N130:P130"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="K128:M128"/>
+    <mergeCell ref="N128:P128"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="K127:M127"/>
+    <mergeCell ref="N127:P127"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="K130:M130"/>
+    <mergeCell ref="N129:P129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="K129:M129"/>
+    <mergeCell ref="N126:P126"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="N125:P125"/>
+    <mergeCell ref="N123:P123"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="K124:M124"/>
+    <mergeCell ref="N124:P124"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="K123:M123"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="K126:M126"/>
+    <mergeCell ref="A120:P121"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="K111:M111"/>
+    <mergeCell ref="N111:P111"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="K112:M112"/>
+    <mergeCell ref="N112:P112"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="N95:P95"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:P91"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:P90"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:P92"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:P89"/>
+    <mergeCell ref="N87:P87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="N88:P88"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="A80:H81"/>
+    <mergeCell ref="I80:P81"/>
+    <mergeCell ref="A82:H83"/>
+    <mergeCell ref="I82:P83"/>
+    <mergeCell ref="A84:P85"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="N75:P75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="N78:P78"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="T57:V57"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="A57:H58"/>
+    <mergeCell ref="I57:P58"/>
+    <mergeCell ref="I59:P60"/>
+    <mergeCell ref="A59:H60"/>
+    <mergeCell ref="A61:P62"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="E141:G141"/>
+    <mergeCell ref="H141:J141"/>
+    <mergeCell ref="K141:M141"/>
+    <mergeCell ref="N141:P141"/>
+    <mergeCell ref="A132:P133"/>
+    <mergeCell ref="A134:H135"/>
+    <mergeCell ref="I134:P135"/>
+    <mergeCell ref="A136:H137"/>
+    <mergeCell ref="I136:P137"/>
+    <mergeCell ref="A138:P139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="E140:G140"/>
+    <mergeCell ref="H140:J140"/>
+    <mergeCell ref="K140:M140"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="H142:J142"/>
+    <mergeCell ref="K142:M142"/>
+    <mergeCell ref="N142:P142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="H143:J143"/>
+    <mergeCell ref="K143:M143"/>
+    <mergeCell ref="N143:P143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:M144"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="E145:G145"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="K145:M145"/>
+    <mergeCell ref="N145:P145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="E146:G146"/>
+    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="K146:M146"/>
+    <mergeCell ref="N146:P146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="H147:J147"/>
+    <mergeCell ref="K147:M147"/>
+    <mergeCell ref="N147:P147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="H148:J148"/>
+    <mergeCell ref="K148:M148"/>
+    <mergeCell ref="N148:P148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="H149:J149"/>
+    <mergeCell ref="K149:M149"/>
+    <mergeCell ref="N149:P149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="H150:J150"/>
+    <mergeCell ref="K150:M150"/>
+    <mergeCell ref="N150:P150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="H151:J151"/>
+    <mergeCell ref="K151:M151"/>
+    <mergeCell ref="N151:P151"/>
+    <mergeCell ref="A153:H154"/>
+    <mergeCell ref="I153:P154"/>
+    <mergeCell ref="A155:H156"/>
+    <mergeCell ref="I155:P156"/>
+    <mergeCell ref="A157:P158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="K159:M159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="K160:M160"/>
+    <mergeCell ref="N160:P160"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="K161:M161"/>
+    <mergeCell ref="N161:P161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="E162:G162"/>
+    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="K162:M162"/>
+    <mergeCell ref="N162:P162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="E163:G163"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="K163:M163"/>
+    <mergeCell ref="N163:P163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="K164:M164"/>
+    <mergeCell ref="N164:P164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="E165:G165"/>
+    <mergeCell ref="H165:J165"/>
+    <mergeCell ref="K165:M165"/>
+    <mergeCell ref="N165:P165"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="H166:J166"/>
+    <mergeCell ref="K166:M166"/>
+    <mergeCell ref="N166:P166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="H167:J167"/>
+    <mergeCell ref="K167:M167"/>
+    <mergeCell ref="N167:P167"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="E168:G168"/>
+    <mergeCell ref="H168:J168"/>
+    <mergeCell ref="K168:M168"/>
+    <mergeCell ref="N168:P168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="E169:G169"/>
+    <mergeCell ref="H169:J169"/>
+    <mergeCell ref="K169:M169"/>
+    <mergeCell ref="N169:P169"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="E170:G170"/>
+    <mergeCell ref="H170:J170"/>
+    <mergeCell ref="K170:M170"/>
+    <mergeCell ref="N170:P170"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="H171:J171"/>
+    <mergeCell ref="K171:M171"/>
+    <mergeCell ref="N171:P171"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="H172:J172"/>
+    <mergeCell ref="K172:M172"/>
+    <mergeCell ref="N172:P172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="E173:G173"/>
+    <mergeCell ref="H173:J173"/>
+    <mergeCell ref="K173:M173"/>
+    <mergeCell ref="N173:P173"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="H174:J174"/>
+    <mergeCell ref="K174:M174"/>
+    <mergeCell ref="N174:P174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="H175:J175"/>
+    <mergeCell ref="K175:M175"/>
+    <mergeCell ref="N175:P175"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="H176:J176"/>
+    <mergeCell ref="K176:M176"/>
+    <mergeCell ref="N176:P176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="H177:J177"/>
+    <mergeCell ref="K177:M177"/>
+    <mergeCell ref="N177:P177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="E178:G178"/>
+    <mergeCell ref="H178:J178"/>
+    <mergeCell ref="K178:M178"/>
+    <mergeCell ref="N178:P178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="H179:J179"/>
+    <mergeCell ref="K179:M179"/>
+    <mergeCell ref="N179:P179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="H180:J180"/>
+    <mergeCell ref="K180:M180"/>
+    <mergeCell ref="N180:P180"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="E181:G181"/>
+    <mergeCell ref="H181:J181"/>
+    <mergeCell ref="K181:M181"/>
+    <mergeCell ref="N181:P181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="E182:G182"/>
+    <mergeCell ref="H182:J182"/>
+    <mergeCell ref="K182:M182"/>
+    <mergeCell ref="N182:P182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="H183:J183"/>
+    <mergeCell ref="K183:M183"/>
+    <mergeCell ref="N183:P183"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="E184:G184"/>
+    <mergeCell ref="H184:J184"/>
+    <mergeCell ref="K184:M184"/>
+    <mergeCell ref="N184:P184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="E185:G185"/>
+    <mergeCell ref="H185:J185"/>
+    <mergeCell ref="K185:M185"/>
+    <mergeCell ref="N185:P185"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="E186:G186"/>
+    <mergeCell ref="H186:J186"/>
+    <mergeCell ref="K186:M186"/>
+    <mergeCell ref="N186:P186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="E187:G187"/>
+    <mergeCell ref="H187:J187"/>
+    <mergeCell ref="K187:M187"/>
+    <mergeCell ref="N187:P187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="E188:G188"/>
+    <mergeCell ref="H188:J188"/>
+    <mergeCell ref="K188:M188"/>
+    <mergeCell ref="N188:P188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="E189:G189"/>
+    <mergeCell ref="H189:J189"/>
+    <mergeCell ref="K189:M189"/>
+    <mergeCell ref="N189:P189"/>
+    <mergeCell ref="A191:H192"/>
+    <mergeCell ref="I191:P192"/>
+    <mergeCell ref="A193:H194"/>
+    <mergeCell ref="I193:P194"/>
+    <mergeCell ref="A195:P196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="E197:G197"/>
+    <mergeCell ref="H197:J197"/>
+    <mergeCell ref="K197:M197"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="E198:G198"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="K198:M198"/>
+    <mergeCell ref="N198:P198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="E199:G199"/>
+    <mergeCell ref="H199:J199"/>
+    <mergeCell ref="K199:M199"/>
+    <mergeCell ref="N199:P199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="E200:G200"/>
+    <mergeCell ref="H200:J200"/>
+    <mergeCell ref="K200:M200"/>
+    <mergeCell ref="N200:P200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="E201:G201"/>
+    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="K201:M201"/>
+    <mergeCell ref="N201:P201"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="E202:G202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="K202:M202"/>
+    <mergeCell ref="N202:P202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="E203:G203"/>
+    <mergeCell ref="H203:J203"/>
+    <mergeCell ref="K203:M203"/>
+    <mergeCell ref="N203:P203"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="E204:G204"/>
+    <mergeCell ref="H204:J204"/>
+    <mergeCell ref="K204:M204"/>
+    <mergeCell ref="N204:P204"/>
+    <mergeCell ref="A29:P30"/>
+    <mergeCell ref="A31:H32"/>
+    <mergeCell ref="I31:P32"/>
+    <mergeCell ref="A33:H34"/>
+    <mergeCell ref="I33:P34"/>
+    <mergeCell ref="A35:P36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
     <mergeCell ref="N46:P46"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="K40:M40"/>
@@ -7200,596 +7766,30 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="E204:G204"/>
-    <mergeCell ref="H204:J204"/>
-    <mergeCell ref="K204:M204"/>
-    <mergeCell ref="N204:P204"/>
-    <mergeCell ref="A29:P30"/>
-    <mergeCell ref="A31:H32"/>
-    <mergeCell ref="I31:P32"/>
-    <mergeCell ref="A33:H34"/>
-    <mergeCell ref="I33:P34"/>
-    <mergeCell ref="A35:P36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="E202:G202"/>
-    <mergeCell ref="H202:J202"/>
-    <mergeCell ref="K202:M202"/>
-    <mergeCell ref="N202:P202"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="E203:G203"/>
-    <mergeCell ref="H203:J203"/>
-    <mergeCell ref="K203:M203"/>
-    <mergeCell ref="N203:P203"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="E200:G200"/>
-    <mergeCell ref="H200:J200"/>
-    <mergeCell ref="K200:M200"/>
-    <mergeCell ref="N200:P200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="E201:G201"/>
-    <mergeCell ref="H201:J201"/>
-    <mergeCell ref="K201:M201"/>
-    <mergeCell ref="N201:P201"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="E198:G198"/>
-    <mergeCell ref="H198:J198"/>
-    <mergeCell ref="K198:M198"/>
-    <mergeCell ref="N198:P198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="E199:G199"/>
-    <mergeCell ref="H199:J199"/>
-    <mergeCell ref="K199:M199"/>
-    <mergeCell ref="N199:P199"/>
-    <mergeCell ref="A191:H192"/>
-    <mergeCell ref="I191:P192"/>
-    <mergeCell ref="A193:H194"/>
-    <mergeCell ref="I193:P194"/>
-    <mergeCell ref="A195:P196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="E197:G197"/>
-    <mergeCell ref="H197:J197"/>
-    <mergeCell ref="K197:M197"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="E188:G188"/>
-    <mergeCell ref="H188:J188"/>
-    <mergeCell ref="K188:M188"/>
-    <mergeCell ref="N188:P188"/>
-    <mergeCell ref="B189:D189"/>
-    <mergeCell ref="E189:G189"/>
-    <mergeCell ref="H189:J189"/>
-    <mergeCell ref="K189:M189"/>
-    <mergeCell ref="N189:P189"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="E186:G186"/>
-    <mergeCell ref="H186:J186"/>
-    <mergeCell ref="K186:M186"/>
-    <mergeCell ref="N186:P186"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="E187:G187"/>
-    <mergeCell ref="H187:J187"/>
-    <mergeCell ref="K187:M187"/>
-    <mergeCell ref="N187:P187"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="E184:G184"/>
-    <mergeCell ref="H184:J184"/>
-    <mergeCell ref="K184:M184"/>
-    <mergeCell ref="N184:P184"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="E185:G185"/>
-    <mergeCell ref="H185:J185"/>
-    <mergeCell ref="K185:M185"/>
-    <mergeCell ref="N185:P185"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="E182:G182"/>
-    <mergeCell ref="H182:J182"/>
-    <mergeCell ref="K182:M182"/>
-    <mergeCell ref="N182:P182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="H183:J183"/>
-    <mergeCell ref="K183:M183"/>
-    <mergeCell ref="N183:P183"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="E180:G180"/>
-    <mergeCell ref="H180:J180"/>
-    <mergeCell ref="K180:M180"/>
-    <mergeCell ref="N180:P180"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="E181:G181"/>
-    <mergeCell ref="H181:J181"/>
-    <mergeCell ref="K181:M181"/>
-    <mergeCell ref="N181:P181"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="E178:G178"/>
-    <mergeCell ref="H178:J178"/>
-    <mergeCell ref="K178:M178"/>
-    <mergeCell ref="N178:P178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="H179:J179"/>
-    <mergeCell ref="K179:M179"/>
-    <mergeCell ref="N179:P179"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="H176:J176"/>
-    <mergeCell ref="K176:M176"/>
-    <mergeCell ref="N176:P176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="E177:G177"/>
-    <mergeCell ref="H177:J177"/>
-    <mergeCell ref="K177:M177"/>
-    <mergeCell ref="N177:P177"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="H174:J174"/>
-    <mergeCell ref="K174:M174"/>
-    <mergeCell ref="N174:P174"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="H175:J175"/>
-    <mergeCell ref="K175:M175"/>
-    <mergeCell ref="N175:P175"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="H172:J172"/>
-    <mergeCell ref="K172:M172"/>
-    <mergeCell ref="N172:P172"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="E173:G173"/>
-    <mergeCell ref="H173:J173"/>
-    <mergeCell ref="K173:M173"/>
-    <mergeCell ref="N173:P173"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="E170:G170"/>
-    <mergeCell ref="H170:J170"/>
-    <mergeCell ref="K170:M170"/>
-    <mergeCell ref="N170:P170"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
-    <mergeCell ref="H171:J171"/>
-    <mergeCell ref="K171:M171"/>
-    <mergeCell ref="N171:P171"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="E168:G168"/>
-    <mergeCell ref="H168:J168"/>
-    <mergeCell ref="K168:M168"/>
-    <mergeCell ref="N168:P168"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="E169:G169"/>
-    <mergeCell ref="H169:J169"/>
-    <mergeCell ref="K169:M169"/>
-    <mergeCell ref="N169:P169"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="H166:J166"/>
-    <mergeCell ref="K166:M166"/>
-    <mergeCell ref="N166:P166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="E167:G167"/>
-    <mergeCell ref="H167:J167"/>
-    <mergeCell ref="K167:M167"/>
-    <mergeCell ref="N167:P167"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="E164:G164"/>
-    <mergeCell ref="H164:J164"/>
-    <mergeCell ref="K164:M164"/>
-    <mergeCell ref="N164:P164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="E165:G165"/>
-    <mergeCell ref="H165:J165"/>
-    <mergeCell ref="K165:M165"/>
-    <mergeCell ref="N165:P165"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="E162:G162"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="K162:M162"/>
-    <mergeCell ref="N162:P162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="E163:G163"/>
-    <mergeCell ref="H163:J163"/>
-    <mergeCell ref="K163:M163"/>
-    <mergeCell ref="N163:P163"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="K160:M160"/>
-    <mergeCell ref="N160:P160"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="H161:J161"/>
-    <mergeCell ref="K161:M161"/>
-    <mergeCell ref="N161:P161"/>
-    <mergeCell ref="A153:H154"/>
-    <mergeCell ref="I153:P154"/>
-    <mergeCell ref="A155:H156"/>
-    <mergeCell ref="I155:P156"/>
-    <mergeCell ref="A157:P158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="H159:J159"/>
-    <mergeCell ref="K159:M159"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="H150:J150"/>
-    <mergeCell ref="K150:M150"/>
-    <mergeCell ref="N150:P150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="E151:G151"/>
-    <mergeCell ref="H151:J151"/>
-    <mergeCell ref="K151:M151"/>
-    <mergeCell ref="N151:P151"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="H148:J148"/>
-    <mergeCell ref="K148:M148"/>
-    <mergeCell ref="N148:P148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="H149:J149"/>
-    <mergeCell ref="K149:M149"/>
-    <mergeCell ref="N149:P149"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="E146:G146"/>
-    <mergeCell ref="H146:J146"/>
-    <mergeCell ref="K146:M146"/>
-    <mergeCell ref="N146:P146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="E147:G147"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="K147:M147"/>
-    <mergeCell ref="N147:P147"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:M144"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="E145:G145"/>
-    <mergeCell ref="H145:J145"/>
-    <mergeCell ref="K145:M145"/>
-    <mergeCell ref="N145:P145"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="H142:J142"/>
-    <mergeCell ref="K142:M142"/>
-    <mergeCell ref="N142:P142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="H143:J143"/>
-    <mergeCell ref="K143:M143"/>
-    <mergeCell ref="N143:P143"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="E141:G141"/>
-    <mergeCell ref="H141:J141"/>
-    <mergeCell ref="K141:M141"/>
-    <mergeCell ref="N141:P141"/>
-    <mergeCell ref="A132:P133"/>
-    <mergeCell ref="A134:H135"/>
-    <mergeCell ref="I134:P135"/>
-    <mergeCell ref="A136:H137"/>
-    <mergeCell ref="I136:P137"/>
-    <mergeCell ref="A138:P139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="E140:G140"/>
-    <mergeCell ref="H140:J140"/>
-    <mergeCell ref="K140:M140"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="T57:V57"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="A57:H58"/>
-    <mergeCell ref="I57:P58"/>
-    <mergeCell ref="I59:P60"/>
-    <mergeCell ref="A59:H60"/>
-    <mergeCell ref="A61:P62"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="A55:P56"/>
     <mergeCell ref="K78:M78"/>
     <mergeCell ref="H78:J78"/>
-    <mergeCell ref="N78:P78"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="N75:P75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="A80:H81"/>
-    <mergeCell ref="I80:P81"/>
-    <mergeCell ref="A82:H83"/>
-    <mergeCell ref="I82:P83"/>
-    <mergeCell ref="A84:P85"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:P89"/>
-    <mergeCell ref="N87:P87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="N88:P88"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="N95:P95"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:P91"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:P90"/>
-    <mergeCell ref="A120:P121"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="K111:M111"/>
-    <mergeCell ref="N111:P111"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="K112:M112"/>
-    <mergeCell ref="N112:P112"/>
-    <mergeCell ref="K129:M129"/>
-    <mergeCell ref="N126:P126"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="K125:M125"/>
-    <mergeCell ref="N125:P125"/>
-    <mergeCell ref="N123:P123"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="K124:M124"/>
-    <mergeCell ref="N124:P124"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="K123:M123"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="K126:M126"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="E110:G110"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="K110:M110"/>
-    <mergeCell ref="N110:P110"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="N130:P130"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="K128:M128"/>
-    <mergeCell ref="N128:P128"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="K127:M127"/>
-    <mergeCell ref="N127:P127"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="K130:M130"/>
-    <mergeCell ref="N129:P129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:P92"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:P94"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="K122:M122"/>
-    <mergeCell ref="A116:H117"/>
-    <mergeCell ref="I116:P117"/>
-    <mergeCell ref="A118:H119"/>
-    <mergeCell ref="I118:P119"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="N96:P96"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="K108:M108"/>
-    <mergeCell ref="N108:P108"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="K109:M109"/>
-    <mergeCell ref="N109:P109"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="N99:P99"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="N76:P76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:P77"/>
-    <mergeCell ref="N93:P93"/>
-    <mergeCell ref="N97:P97"/>
-    <mergeCell ref="N101:P101"/>
-    <mergeCell ref="N106:P106"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="N105:P105"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="K97:M97"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="E107:G107"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:M107"/>
-    <mergeCell ref="N107:P107"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N102:P102"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="N103:P103"/>
-    <mergeCell ref="N104:P104"/>
-    <mergeCell ref="K98:M98"/>
-    <mergeCell ref="N98:P98"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="N100:P100"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{130C7B83-F1BE-4820-9BA1-35F565B1F453}"/>
